--- a/CoursesList.xlsx
+++ b/CoursesList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vybha\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repositories\oora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6A21253D-E08A-4C11-A258-BB4F7B339631}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C74D549-1353-49CD-ABA7-49BA9382E320}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1076,7 +1076,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1127,6 +1127,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1412,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6391D2-F5D4-4ED5-89B1-B83842CA5A2B}">
   <dimension ref="C5:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1901,30 +1904,30 @@
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="16">
+      <c r="C39" s="11">
         <v>35</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E39" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="11">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="16">
+      <c r="C40" s="22">
         <v>36</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="22">
         <v>91</v>
       </c>
     </row>
@@ -1985,30 +1988,30 @@
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="7">
+      <c r="C45" s="16">
         <v>41</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="16">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="7">
+      <c r="C46" s="16">
         <v>42</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="16">
         <v>35</v>
       </c>
     </row>

--- a/CoursesList.xlsx
+++ b/CoursesList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repositories\oora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\oora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C74D549-1353-49CD-ABA7-49BA9382E320}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="337">
   <si>
     <t>https://wipro.udemy.com/cwdatabase-design-introduction/</t>
   </si>
@@ -946,13 +945,103 @@
   </si>
   <si>
     <t>mongodb-professional-developer</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/ionic-3-apps-for-woocommerce-build-an-ecommerce-mobile-app/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ionic 3 Apps for WooCommerce: Build an eCommerce Mobile App </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/projects-in-expressjs-learn-expressjs-building-10-projects/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projects in ExpressJS - Learn ExpressJs building 10 projects </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/luv2code-eclipse-ide-for-beginners/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eclipse IDE for Beginners: Increase Your Java Productivity </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/react-vr/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">React VR - Creating Virtual Reality Apps </t>
+  </si>
+  <si>
+    <t>the-complete-guide-to-jira-with-real-world-examples</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn JIRA with real-world examples (+Confluence bonus) </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/webpack-2-the-complete-developers-guide/</t>
+  </si>
+  <si>
+    <t>Webpack 2: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/the-complete-elixir-and-phoenix-bootcamp-and-tutorial/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Complete Elixir and Phoenix Bootcamp </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/javascript-es6-tutorial/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES6 Javascript: The Complete Developer's Guide </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/dart-and-flutter-the-complete-developers-guide/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dart and Flutter: The Complete Developer's Guide </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/ethereum-and-solidity-the-complete-developers-guide/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethereum and Solidity: The Complete Developer's Guide </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/coding-interview-bootcamp-algorithms-and-data-structure/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Coding Interview Bootcamp: Algorithms + Data Structures </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/server-side-rendering-with-react-and-redux/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Side Rendering with React and Redux </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/node-with-react-fullstack-web-development/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node with React: Fullstack Web Development </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/electron-react-tutorial/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electron for Desktop Apps: The Complete Developer's Guide </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/graphql-with-react-course/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GraphQL with React: The Complete Developers Guide </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,20 +1101,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1060,6 +1164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1076,59 +1186,83 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1412,2278 +1546,2412 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6391D2-F5D4-4ED5-89B1-B83842CA5A2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:F178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="5">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="5">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="6">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="2">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C10" s="1">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="2">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="1">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C13" s="2">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C14" s="2">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="1">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="11">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="1">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="11">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C17" s="1">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C18" s="1">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C19" s="1">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="2">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C20" s="1">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="2">
         <v>16</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="9">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="6">
         <v>17</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1">
         <v>18</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="11">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C24" s="2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C25" s="2">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1">
         <v>21</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C26" s="2">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="1">
         <v>22</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C27" s="2">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="1">
         <v>23</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C28" s="2">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
         <v>24</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C29" s="2">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
         <v>25</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C30" s="2">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
         <v>26</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C31" s="2">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
         <v>27</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="11">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="7">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" s="8">
         <v>29</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>354</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="7">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" s="8">
         <v>30</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="11">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
         <v>31</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="4">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" s="9">
         <v>32</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="9">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="20">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C37" s="9">
         <v>33</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="7">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C38" s="8">
         <v>34</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="11">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C39" s="1">
         <v>35</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="22">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C40" s="11">
         <v>36</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="11">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="11">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C41" s="1">
         <v>37</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="21">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C42" s="20">
         <v>38</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="20" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="7">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C43" s="8">
         <v>39</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="7">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C44" s="8">
         <v>40</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="16">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" s="12">
         <v>41</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="12">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="16">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="12">
         <v>42</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="12">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="7">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" s="8">
         <v>43</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="7">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" s="8">
         <v>44</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="7">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="8">
         <v>45</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C50" s="2">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="1">
         <v>46</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>362</v>
       </c>
     </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C51" s="2">
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="1">
         <v>47</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="7">
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="8">
         <v>48</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="7">
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="8">
         <v>49</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>27</v>
       </c>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="7">
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="8">
         <v>50</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C55" s="7">
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="8">
         <v>51</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C56" s="7">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="8">
         <v>52</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="7">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="8">
         <v>53</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="7">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="8">
         <v>54</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="7">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="8">
         <v>55</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <v>421</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C60" s="7">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="8">
         <v>56</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C61" s="7">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="8">
         <v>57</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="8">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C62" s="7">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="8">
         <v>58</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C63" s="4">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="9">
         <v>59</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="9">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C64" s="7">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="8">
         <v>60</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="8">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C65" s="7">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="8">
         <v>61</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="8">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C66" s="7">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="8">
         <v>62</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="8">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C67" s="7">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="8">
         <v>63</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="8">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C68" s="2">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="1">
         <v>64</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C69" s="2">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="1">
         <v>65</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C70" s="2">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="1">
         <v>66</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C71" s="7">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="8">
         <v>67</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C72" s="11">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="1">
         <v>68</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C73" s="19">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="14">
         <v>69</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="14">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C74" s="7">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="8">
         <v>70</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="8">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C75" s="2">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="1">
         <v>71</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C76" s="2">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="1">
         <v>72</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C77" s="11">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="1">
         <v>73</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C78" s="18">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="15">
         <v>74</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="15">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C79" s="2">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="1">
         <v>75</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C80" s="2">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="1">
         <v>76</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C81" s="2">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="1">
         <v>77</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C82" s="11">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="1">
         <v>78</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C83" s="2">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="1">
         <v>79</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C84" s="7">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="8">
         <v>80</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="8">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C85" s="2">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="1">
         <v>81</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C86" s="2">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="1">
         <v>82</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C87" s="2">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="1">
         <v>83</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C88" s="2">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="1">
         <v>84</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C89" s="2">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="1">
         <v>85</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C90" s="2">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="1">
         <v>86</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C91" s="2">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="1">
         <v>87</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C92" s="2">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="1">
         <v>88</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C93" s="9">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="6">
         <v>89</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C94" s="2">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="1">
         <v>90</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C95" s="2">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="1">
         <v>91</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C96" s="2">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="1">
         <v>92</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C97" s="2">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="1">
         <v>93</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C98" s="2">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="1">
         <v>94</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C99" s="2">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="1">
         <v>95</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C100" s="2">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C100" s="1">
         <v>96</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C101" s="2">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C101" s="1">
         <v>97</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C102" s="2">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C102" s="1">
         <v>98</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C103" s="2">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C103" s="1">
         <v>99</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C104" s="2">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C104" s="1">
         <v>100</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C105" s="2">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C105" s="1">
         <v>101</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C106" s="2">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C106" s="1">
         <v>102</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C107" s="2">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C107" s="1">
         <v>103</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C108" s="2">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C108" s="1">
         <v>104</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C109" s="2">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C109" s="1">
         <v>105</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C110" s="2">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C110" s="1">
         <v>106</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C111" s="2">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C111" s="1">
         <v>107</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C112" s="2">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C112" s="1">
         <v>108</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C113" s="2">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C113" s="1">
         <v>109</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C114" s="2">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C114" s="1">
         <v>110</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C115" s="11">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C115" s="1">
         <v>111</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="1">
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C116" s="2">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C116" s="1">
         <v>112</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C117" s="11">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C117" s="1">
         <v>113</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C118" s="1">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C118" s="2">
         <v>114</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="D118" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="E118" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C119" s="1">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C119" s="2">
         <v>115</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="D119" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="E119" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F119" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C120" s="2">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C120" s="1">
         <v>116</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C121" s="2">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C121" s="1">
         <v>117</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C122" s="2">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C122" s="1">
         <v>118</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C123" s="2">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C123" s="1">
         <v>119</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C124" s="2">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C124" s="1">
         <v>120</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C125" s="2">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C125" s="1">
         <v>121</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C126" s="2">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C126" s="1">
         <v>122</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C127" s="2">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C127" s="1">
         <v>123</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C128" s="2">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C128" s="1">
         <v>124</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C129" s="2">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C129" s="1">
         <v>125</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C130" s="2">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C130" s="1">
         <v>126</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C131" s="2">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C131" s="1">
         <v>127</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C132" s="2">
+      <c r="E131" s="4"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C132" s="1">
         <v>128</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C133" s="2">
+      <c r="E132" s="4"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C133" s="1">
         <v>129</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C134" s="2">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C134" s="1">
         <v>130</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C135" s="11">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C135" s="1">
         <v>131</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F135" s="11">
+      <c r="F135" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C136" s="12">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C136" s="17">
         <v>132</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="1">
         <v>388</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C137" s="12">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C137" s="17">
         <v>133</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D137" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C138" s="11">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C138" s="1">
         <v>134</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F138" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C139" s="16">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C139" s="18">
         <v>135</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="F139" s="17">
+      <c r="F139" s="18">
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C140" s="12">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C140" s="17">
         <v>136</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="23">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C141" s="11">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C141" s="1">
         <v>137</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F141" s="11">
+      <c r="F141" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C142" s="12">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C142" s="17">
         <v>138</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="23">
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C143" s="12">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C143" s="19">
         <v>139</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="19" t="s">
         <v>272</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="19">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C144" s="11">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C144" s="1">
         <v>140</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F144" s="1">
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C145" s="12">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C145" s="1">
         <v>141</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="1">
         <v>308</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C146" s="12">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C146" s="17">
         <v>142</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D146" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="23">
         <v>235</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C147" s="12">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C147" s="17">
         <v>143</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="23">
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C148" s="11">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C148" s="1">
         <v>144</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C149" s="11">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C149" s="1">
         <v>145</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F149" s="1">
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C150" s="12">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C150" s="17">
         <v>146</v>
       </c>
-      <c r="D150" s="13" t="s">
+      <c r="D150" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E150" t="s">
+      <c r="E150" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="23">
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C151" s="12">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C151" s="17">
         <v>147</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="D151" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="23">
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C152" s="12">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C152" s="17">
         <v>148</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D152" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="23">
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C153" s="12">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C153" s="1">
         <v>149</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C154" s="12">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C154" s="17">
         <v>150</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="23">
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C155" s="12">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C155" s="17">
         <v>151</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="D155" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="23">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C156" s="16">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C156" s="18">
         <v>152</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="D156" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="F156" s="17">
+      <c r="F156" s="18">
         <v>527</v>
       </c>
     </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C157" s="11">
+    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C157" s="1">
         <v>153</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F157" s="11">
+      <c r="F157" s="1">
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C158" s="12">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C158" s="1">
         <v>154</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D158" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="1">
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C159" s="12">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C159" s="1">
         <v>155</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="D159" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C160" s="12">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C160" s="1">
         <v>156</v>
       </c>
-      <c r="D160" s="15"/>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C161" s="12">
+      <c r="D160" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F160" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C161" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C162" s="12">
+      <c r="D161" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F161" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C162" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C163" s="12">
+      <c r="D162" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F162" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C163" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C164" s="12">
+      <c r="D163" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F163" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C164" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C165" s="12">
+      <c r="D164" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F164" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C165" s="17">
         <v>161</v>
       </c>
-      <c r="E165" s="14"/>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C166" s="12">
+      <c r="D165" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F165" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C166" s="17">
         <v>162</v>
       </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C167" s="12">
+      <c r="D166" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F166" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C167" s="17">
         <v>163</v>
       </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C168" s="12">
+      <c r="D167" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F167" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C168" s="17">
         <v>164</v>
       </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C169" s="12">
+      <c r="D168" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E168" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F168" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C169" s="17">
         <v>165</v>
       </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C170" s="12">
+      <c r="D169" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E169" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F169" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C170" s="17">
         <v>166</v>
       </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C171" s="12">
+      <c r="D170" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E170" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F170" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C171" s="17">
         <v>167</v>
       </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C172" s="12">
+      <c r="D171" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F171" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C172" s="17">
         <v>168</v>
       </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C173" s="12">
+      <c r="D172" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="F172" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C173" s="17">
         <v>169</v>
       </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C174" s="12">
+      <c r="D173" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F173" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C174" s="17">
         <v>170</v>
       </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D174" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F174" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>306</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" xr:uid="{8B77A483-EF62-440C-8701-C7371AC2750B}"/>
-    <hyperlink ref="E128" r:id="rId2" xr:uid="{8569BF2F-F821-46E8-9F10-B65513C12B6C}"/>
-    <hyperlink ref="E32" r:id="rId3" xr:uid="{9BF0118B-59A5-4CAC-974B-0895E4E964B2}"/>
-    <hyperlink ref="E42" r:id="rId4" xr:uid="{E680BE8E-E59D-4CFA-91A7-F2BA624235AB}"/>
+    <hyperlink ref="E165" r:id="rId1"/>
+    <hyperlink ref="E42" r:id="rId2"/>
+    <hyperlink ref="E32" r:id="rId3"/>
+    <hyperlink ref="E128" r:id="rId4"/>
+    <hyperlink ref="E26" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/CoursesList.xlsx
+++ b/CoursesList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repositories\oora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9C74D549-1353-49CD-ABA7-49BA9382E320}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18B27869-0B07-42C2-8F34-652E3F326682}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="308">
   <si>
     <t>https://wipro.udemy.com/cwdatabase-design-introduction/</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>mongodb-professional-developer</t>
+  </si>
+  <si>
+    <t>master-web-design-in-photoshop</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1079,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1128,6 +1131,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1413,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6391D2-F5D4-4ED5-89B1-B83842CA5A2B}">
-  <dimension ref="C5:F178"/>
+  <dimension ref="C5:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:F46"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1988,73 +1994,73 @@
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="16">
+      <c r="C45" s="23">
         <v>41</v>
       </c>
-      <c r="D45" s="16" t="s">
+      <c r="D45" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="16" t="s">
+      <c r="E45" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="23">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="16">
+      <c r="C46" s="23">
         <v>42</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="23">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="7">
+      <c r="C47" s="23">
         <v>43</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="23">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="7">
+      <c r="C48" s="23">
         <v>44</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="23">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="7">
+      <c r="C49" s="23">
         <v>45</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="7">
-        <v>51</v>
+      <c r="F49" s="23">
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
@@ -2086,16 +2092,16 @@
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="7">
+      <c r="C52" s="16">
         <v>48</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="16">
         <v>136</v>
       </c>
     </row>
@@ -2296,16 +2302,16 @@
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C67" s="7">
+      <c r="C67" s="16">
         <v>63</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="16">
         <v>63</v>
       </c>
     </row>
@@ -3674,6 +3680,11 @@
     <row r="178" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
         <v>306</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D179" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -3682,8 +3693,9 @@
     <hyperlink ref="E128" r:id="rId2" xr:uid="{8569BF2F-F821-46E8-9F10-B65513C12B6C}"/>
     <hyperlink ref="E32" r:id="rId3" xr:uid="{9BF0118B-59A5-4CAC-974B-0895E4E964B2}"/>
     <hyperlink ref="E42" r:id="rId4" xr:uid="{E680BE8E-E59D-4CFA-91A7-F2BA624235AB}"/>
+    <hyperlink ref="E49" r:id="rId5" xr:uid="{DA5A9E95-817C-4DDC-AFD7-C7498FBD1BA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/CoursesList.xlsx
+++ b/CoursesList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repositories\oora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{18B27869-0B07-42C2-8F34-652E3F326682}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E520E3FE-1933-4419-8DD9-F32B5E9FD08A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="383">
   <si>
     <t>https://wipro.udemy.com/cwdatabase-design-introduction/</t>
   </si>
@@ -942,20 +942,245 @@
     <t>Meteor and React for Realtime Apps</t>
   </si>
   <si>
-    <t>react-testing</t>
-  </si>
-  <si>
-    <t>mongodb-professional-developer</t>
-  </si>
-  <si>
-    <t>master-web-design-in-photoshop</t>
+    <t>https://wipro.udemy.com/ios-12-app-development-bootcamp/</t>
+  </si>
+  <si>
+    <t>iOS 12 &amp; Swift - The Complete iOS App Development Bootcamp</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/aws-certified-solutions-architect-associate/</t>
+  </si>
+  <si>
+    <t>AWS Certified Solutions Architect - Associate 2018</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/git-bash/</t>
+  </si>
+  <si>
+    <t>Command Line Essentials: Git Bash for Windows</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/javascript-and-the-dom/</t>
+  </si>
+  <si>
+    <t>JavaScript and the DOM for JavaScript Beginners</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/complete-python-3-masterclass-journey/</t>
+  </si>
+  <si>
+    <t>Complete Python 3 Masterclass Journey</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/python-for-finance-and-trading-algorithms/</t>
+  </si>
+  <si>
+    <t>Python for Financial Analysis and Algorithmic Trading</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/python-for-data-science-and-machine-learning-bootcamp/</t>
+  </si>
+  <si>
+    <t>Python for Data Science and Machine Learning Bootcamp</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/scala-and-spark-for-big-data-and-machine-learning/</t>
+  </si>
+  <si>
+    <t>Scala and Spark for Big Data and Machine Learning</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/build-web-apps-using-emberjs-the-complete-course</t>
+  </si>
+  <si>
+    <t>Build Web Apps Using EmberJS: The Complete Course</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/react-2nd-edition/</t>
+  </si>
+  <si>
+    <t>The Complete React Web Developer Course (with Redux)</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/meteor-react/</t>
+  </si>
+  <si>
+    <t>Full-Stack Web Apps with Meteor and React</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/webpack-2-the-complete-developers-guide/</t>
+  </si>
+  <si>
+    <t>Webpack 2: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/google-analytics-insights/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Analytics For Beginners </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/learn-big-data-the-hadoop-ecosystem-masterclass</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/the-complete-elixir-and-phoenix-bootcamp-and-tutorial/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/learn-d3js-for-data-visualization/</t>
+  </si>
+  <si>
+    <t>Learn Big Data: The Hadoop Ecosystem Masterclass</t>
+  </si>
+  <si>
+    <t>Learn and Understand D3.js for Data Visualization</t>
+  </si>
+  <si>
+    <t>The Complete Elixir and Phoenix Bootcamp</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/r-analytics/</t>
+  </si>
+  <si>
+    <t>R Programming: Advanced Analytics In R For Data Science</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/electron-react-tutorial/</t>
+  </si>
+  <si>
+    <t>Electron for Desktop Apps: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/r-level1/</t>
+  </si>
+  <si>
+    <t>R Level 1 - Data Analytics with R</t>
+  </si>
+  <si>
+    <t>UiPath - RPA Robotic Process Automation</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/uipath-robotic-process-automation/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/graphql-with-react-course/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/deeplearning/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/machine-learning-course-with-python/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/data-science-supervised-machine-learning-in-python/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/deep-learning-recurrent-neural-networks-in-python/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/dart-and-flutter-the-complete-developers-guide/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/ethereum-and-solidity-the-complete-developers-guide/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/practical-deep-learning-with-keras/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/python-machine-learning/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/the-complete-javascript-course/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/python-and-django-full-stack-web-developer-bootcamp/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/node-with-react-fullstack-web-development/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/server-side-rendering-with-react-and-redux/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/coding-interview-bootcamp-algorithms-and-data-structure/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/git-with-bitbucket-and-sourcetree/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/bamboo-continuous-integration-for-devops-developers/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/postman-api-testing-step-by-step-for-beginners/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/red-hat-openshift/</t>
+  </si>
+  <si>
+    <t>GraphQL with React: The Complete Developers Guide</t>
+  </si>
+  <si>
+    <t>Deep Learning A-Z™: Hands-On Artificial Neural Networks</t>
+  </si>
+  <si>
+    <t>The Complete Machine Learning Course with Python</t>
+  </si>
+  <si>
+    <t>Data Science: Supervised Machine Learning in Python</t>
+  </si>
+  <si>
+    <t>Deep Learning: Recurrent Neural Networks in Python</t>
+  </si>
+  <si>
+    <t>Dart and Flutter: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>Ethereum and Solidity: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>Practical Deep Learning with Keras and Python</t>
+  </si>
+  <si>
+    <t>Machine Learning with Python from Scratch</t>
+  </si>
+  <si>
+    <t>The Complete JavaScript Course 2018: Build Real Projects!</t>
+  </si>
+  <si>
+    <t>Python and Django Full Stack Web Developer Bootcamp</t>
+  </si>
+  <si>
+    <t>Node with React: Fullstack Web Development</t>
+  </si>
+  <si>
+    <t>Server Side Rendering with React and Redux</t>
+  </si>
+  <si>
+    <t>The Coding Interview Bootcamp: Algorithms + Data Structures</t>
+  </si>
+  <si>
+    <t>Red Hat OpenShift With Jenkins: DevOps For Beginners</t>
+  </si>
+  <si>
+    <t>POSTMAN API Testing - Step by Step for Beginners</t>
+  </si>
+  <si>
+    <t>Bamboo: Continuous Integration for DevOps &amp; Developers</t>
+  </si>
+  <si>
+    <t>Git Essentials: Learn Git with Bitbucket and Sourcetree</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/the-complete-web-developer-course-2/</t>
+  </si>
+  <si>
+    <t>The Complete Web Developer Course 2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,6 +1252,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color theme="0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1079,7 +1310,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1118,10 +1349,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1129,13 +1356,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
@@ -1419,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6391D2-F5D4-4ED5-89B1-B83842CA5A2B}">
-  <dimension ref="C5:F179"/>
+  <dimension ref="C5:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1532,16 +1776,16 @@
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="1">
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
         <v>544</v>
       </c>
     </row>
@@ -1826,30 +2070,30 @@
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="7">
+      <c r="C33" s="28">
         <v>29</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="28">
         <v>354</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="7">
+      <c r="C34" s="28">
         <v>30</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="28">
         <v>247</v>
       </c>
     </row>
@@ -1882,30 +2126,30 @@
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="20">
+      <c r="C37" s="18">
         <v>33</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="18">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="7">
+      <c r="C38" s="4">
         <v>34</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="4">
         <v>424</v>
       </c>
     </row>
@@ -1924,16 +2168,16 @@
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="22">
+      <c r="C40" s="19">
         <v>36</v>
       </c>
-      <c r="D40" s="22" t="s">
+      <c r="D40" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="22" t="s">
+      <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="19">
         <v>91</v>
       </c>
     </row>
@@ -1952,114 +2196,114 @@
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="21">
+      <c r="C42" s="18">
         <v>38</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="18">
         <v>308</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="7">
+      <c r="C43" s="27">
         <v>39</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="27">
         <v>207</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="7">
+      <c r="C44" s="4">
         <v>40</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="4">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="23">
+      <c r="C45" s="4">
         <v>41</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="23" t="s">
+      <c r="E45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="23">
+      <c r="F45" s="4">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="23">
+      <c r="C46" s="4">
         <v>42</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="23" t="s">
+      <c r="E46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="23">
+      <c r="F46" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="23">
+      <c r="C47" s="4">
         <v>43</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="23" t="s">
+      <c r="E47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="23">
+      <c r="F47" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="23">
+      <c r="C48" s="4">
         <v>44</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="23">
+      <c r="F48" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="23">
+      <c r="C49" s="4">
         <v>45</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="23" t="s">
+      <c r="E49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="23">
+      <c r="F49" s="4">
         <v>98</v>
       </c>
     </row>
@@ -2092,58 +2336,58 @@
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="16">
+      <c r="C52" s="4">
         <v>48</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="16">
+      <c r="F52" s="4">
         <v>136</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="7">
+      <c r="C53" s="4">
         <v>49</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="7">
+      <c r="C54" s="4">
         <v>50</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="4">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C55" s="7">
+      <c r="C55" s="27">
         <v>51</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="27">
         <v>142</v>
       </c>
     </row>
@@ -2162,58 +2406,58 @@
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="7">
+      <c r="C57" s="4">
         <v>53</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="7">
+      <c r="C58" s="4">
         <v>54</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="7">
+      <c r="C59" s="28">
         <v>55</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E59" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="28">
         <v>421</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C60" s="7">
+      <c r="C60" s="21">
         <v>56</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="21">
         <v>21</v>
       </c>
     </row>
@@ -2232,16 +2476,16 @@
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C62" s="7">
+      <c r="C62" s="4">
         <v>58</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="4">
         <v>58</v>
       </c>
     </row>
@@ -2302,16 +2546,16 @@
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C67" s="16">
+      <c r="C67" s="4">
         <v>63</v>
       </c>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="16" t="s">
+      <c r="E67" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="16">
+      <c r="F67" s="4">
         <v>63</v>
       </c>
     </row>
@@ -2386,16 +2630,16 @@
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C73" s="19">
+      <c r="C73" s="17">
         <v>69</v>
       </c>
-      <c r="D73" s="19" t="s">
+      <c r="D73" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="19" t="s">
+      <c r="E73" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="19">
+      <c r="F73" s="17">
         <v>34</v>
       </c>
     </row>
@@ -2456,16 +2700,16 @@
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C78" s="18">
+      <c r="C78" s="16">
         <v>74</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="16">
         <v>85</v>
       </c>
     </row>
@@ -3302,30 +3546,30 @@
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C139" s="16">
+      <c r="C139" s="24">
         <v>135</v>
       </c>
-      <c r="D139" s="17" t="s">
+      <c r="D139" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="E139" s="17" t="s">
+      <c r="E139" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F139" s="17">
+      <c r="F139" s="25">
         <v>429</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C140" s="12">
+      <c r="C140" s="4">
         <v>136</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="D140" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="E140" t="s">
+      <c r="E140" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="18">
         <v>141</v>
       </c>
     </row>
@@ -3344,16 +3588,16 @@
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C142" s="12">
+      <c r="C142" s="4">
         <v>138</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="D142" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="E142" t="s">
+      <c r="E142" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="18">
         <v>166</v>
       </c>
     </row>
@@ -3386,44 +3630,44 @@
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C145" s="12">
+      <c r="C145" s="4">
         <v>141</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="D145" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E145" t="s">
+      <c r="E145" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="18">
         <v>308</v>
       </c>
     </row>
     <row r="146" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C146" s="12">
+      <c r="C146" s="2">
         <v>142</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="D146" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E146" t="s">
+      <c r="E146" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="11">
         <v>235</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C147" s="12">
+      <c r="C147" s="4">
         <v>143</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="E147" t="s">
+      <c r="E147" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="18">
         <v>229</v>
       </c>
     </row>
@@ -3470,87 +3714,87 @@
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C151" s="12">
+      <c r="C151" s="4">
         <v>147</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="D151" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E151" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="18">
         <v>97</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C152" s="12">
+      <c r="C152" s="27">
         <v>148</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="D152" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E152" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="29">
         <v>120</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C153" s="12">
+      <c r="C153" s="20">
         <v>149</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="D153" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="E153" t="s">
+      <c r="E153" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="20">
         <v>154</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C154" s="12">
+      <c r="C154" s="20">
         <v>150</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="D154" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E154" t="s">
+      <c r="E154" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="20">
         <v>257</v>
       </c>
     </row>
     <row r="155" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C155" s="12">
+      <c r="C155" s="2">
         <v>151</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="D155" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E155" t="s">
+      <c r="E155" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="11">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C156" s="16">
+      <c r="C156" s="19">
         <v>152</v>
       </c>
-      <c r="D156" s="17" t="s">
+      <c r="D156" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="E156" s="17" t="s">
+      <c r="E156" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="F156" s="17">
-        <v>527</v>
+      <c r="F156" s="23">
+        <v>533</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.3">
@@ -3568,30 +3812,30 @@
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C158" s="12">
+      <c r="C158" s="4">
         <v>154</v>
       </c>
-      <c r="D158" s="13" t="s">
+      <c r="D158" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="E158" t="s">
+      <c r="E158" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="18">
         <v>292</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C159" s="12">
+      <c r="C159" s="4">
         <v>155</v>
       </c>
-      <c r="D159" s="13" t="s">
+      <c r="D159" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="E159" t="s">
+      <c r="E159" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="18">
         <v>112</v>
       </c>
     </row>
@@ -3599,103 +3843,571 @@
       <c r="C160" s="12">
         <v>156</v>
       </c>
-      <c r="D160" s="15"/>
-    </row>
-    <row r="161" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D160" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F160">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C161" s="12">
         <v>157</v>
       </c>
-    </row>
-    <row r="162" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C162" s="12">
+      <c r="D161" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E161" t="s">
+        <v>307</v>
+      </c>
+      <c r="F161">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C162" s="4">
         <v>158</v>
       </c>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D162" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F162" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C163" s="12">
         <v>159</v>
       </c>
-    </row>
-    <row r="164" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C164" s="12">
+      <c r="D163" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E163" t="s">
+        <v>311</v>
+      </c>
+      <c r="F163">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C164" s="4">
         <v>160</v>
       </c>
-    </row>
-    <row r="165" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D164" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F164" s="18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C165" s="12">
         <v>161</v>
       </c>
-      <c r="E165" s="14"/>
-    </row>
-    <row r="166" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D165" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="F165">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C166" s="12">
         <v>162</v>
       </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C167" s="12">
+      <c r="D166" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E166" t="s">
+        <v>317</v>
+      </c>
+      <c r="F166">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C167" s="4">
         <v>163</v>
       </c>
-    </row>
-    <row r="168" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C168" s="12">
+      <c r="D167" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F167" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C168" s="4">
         <v>164</v>
       </c>
-    </row>
-    <row r="169" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C169" s="12">
+      <c r="D168" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F168" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C169" s="2">
         <v>165</v>
       </c>
-    </row>
-    <row r="170" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C170" s="12">
+      <c r="D169" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F169" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C170" s="2">
         <v>166</v>
       </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C171" s="12">
+      <c r="D170" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F170" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C171" s="2">
         <v>167</v>
       </c>
-    </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C172" s="12">
+      <c r="D171" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F171" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C172" s="2">
         <v>168</v>
       </c>
-    </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D172" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E172" t="s">
+        <v>362</v>
+      </c>
+      <c r="F172" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C173" s="12">
         <v>169</v>
       </c>
-    </row>
-    <row r="174" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C174" s="12">
+      <c r="D173" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E173" t="s">
+        <v>331</v>
+      </c>
+      <c r="F173" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C174" s="28">
         <v>170</v>
       </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D177" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D178" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D179" t="s">
-        <v>307</v>
+      <c r="D174" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="F174" s="30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C175">
+        <v>171</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E175" t="s">
+        <v>333</v>
+      </c>
+      <c r="F175" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C176">
+        <v>172</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E176" t="s">
+        <v>332</v>
+      </c>
+      <c r="F176" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C177">
+        <v>173</v>
+      </c>
+      <c r="D177" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E177" t="s">
+        <v>337</v>
+      </c>
+      <c r="F177" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C178">
+        <v>174</v>
+      </c>
+      <c r="D178" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E178" t="s">
+        <v>339</v>
+      </c>
+      <c r="F178" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C179">
+        <v>175</v>
+      </c>
+      <c r="D179" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E179" t="s">
+        <v>341</v>
+      </c>
+      <c r="F179" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C180">
+        <v>176</v>
+      </c>
+      <c r="D180" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="E180" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C181">
+        <v>177</v>
+      </c>
+      <c r="D181" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="E181" t="s">
+        <v>345</v>
+      </c>
+      <c r="F181" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C182">
+        <v>178</v>
+      </c>
+      <c r="D182" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>179</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E183" t="s">
+        <v>347</v>
+      </c>
+      <c r="F183" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C184">
+        <v>180</v>
+      </c>
+      <c r="D184" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="E184" t="s">
+        <v>348</v>
+      </c>
+      <c r="F184" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C185">
+        <v>181</v>
+      </c>
+      <c r="D185" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E185" t="s">
+        <v>349</v>
+      </c>
+      <c r="F185" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>182</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E186" t="s">
+        <v>350</v>
+      </c>
+      <c r="F186" s="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>183</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E187" t="s">
+        <v>351</v>
+      </c>
+      <c r="F187" s="11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C188">
+        <v>184</v>
+      </c>
+      <c r="D188" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="E188" t="s">
+        <v>352</v>
+      </c>
+      <c r="F188" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C189">
+        <v>185</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E189" t="s">
+        <v>353</v>
+      </c>
+      <c r="F189" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>186</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E190" t="s">
+        <v>354</v>
+      </c>
+      <c r="F190" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>187</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E191" t="s">
+        <v>355</v>
+      </c>
+      <c r="F191" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>188</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E192" t="s">
+        <v>356</v>
+      </c>
+      <c r="F192" s="11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>189</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E193" t="s">
+        <v>357</v>
+      </c>
+      <c r="F193" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>190</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E194" t="s">
+        <v>358</v>
+      </c>
+      <c r="F194" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C195">
+        <v>191</v>
+      </c>
+      <c r="D195" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="E195" t="s">
+        <v>359</v>
+      </c>
+      <c r="F195" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C196">
+        <v>192</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="E196" t="s">
+        <v>360</v>
+      </c>
+      <c r="F196" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C197">
+        <v>193</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="E197" t="s">
+        <v>361</v>
+      </c>
+      <c r="F197" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>194</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E198" t="s">
+        <v>381</v>
+      </c>
+      <c r="F198" s="11">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C200">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" xr:uid="{8B77A483-EF62-440C-8701-C7371AC2750B}"/>
-    <hyperlink ref="E128" r:id="rId2" xr:uid="{8569BF2F-F821-46E8-9F10-B65513C12B6C}"/>
-    <hyperlink ref="E32" r:id="rId3" xr:uid="{9BF0118B-59A5-4CAC-974B-0895E4E964B2}"/>
-    <hyperlink ref="E42" r:id="rId4" xr:uid="{E680BE8E-E59D-4CFA-91A7-F2BA624235AB}"/>
-    <hyperlink ref="E49" r:id="rId5" xr:uid="{DA5A9E95-817C-4DDC-AFD7-C7498FBD1BA8}"/>
+    <hyperlink ref="E160" r:id="rId1" xr:uid="{CC1BBC9C-E5DC-4F5B-9EE4-1400E5D93419}"/>
+    <hyperlink ref="E49" r:id="rId2" xr:uid="{DA5A9E95-817C-4DDC-AFD7-C7498FBD1BA8}"/>
+    <hyperlink ref="E42" r:id="rId3" xr:uid="{E680BE8E-E59D-4CFA-91A7-F2BA624235AB}"/>
+    <hyperlink ref="E32" r:id="rId4" xr:uid="{9BF0118B-59A5-4CAC-974B-0895E4E964B2}"/>
+    <hyperlink ref="E128" r:id="rId5" xr:uid="{8569BF2F-F821-46E8-9F10-B65513C12B6C}"/>
+    <hyperlink ref="E26" r:id="rId6" xr:uid="{8B77A483-EF62-440C-8701-C7371AC2750B}"/>
+    <hyperlink ref="E38" r:id="rId7" xr:uid="{DAEC7483-4102-4021-9F76-F73F6B92E472}"/>
+    <hyperlink ref="E171" r:id="rId8" xr:uid="{A49FCC1A-F460-4F3E-9ABA-D45309B1B885}"/>
+    <hyperlink ref="E164" r:id="rId9" xr:uid="{3E20521B-9CB8-4089-9B93-4AFD14829223}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/CoursesList.xlsx
+++ b/CoursesList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repositories\oora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E520E3FE-1933-4419-8DD9-F32B5E9FD08A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1EB7A9D3-FE50-4231-9FC1-97790A20D422}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,7 +1310,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1378,7 +1378,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1665,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6391D2-F5D4-4ED5-89B1-B83842CA5A2B}">
   <dimension ref="C5:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
-      <selection activeCell="F198" sqref="F198"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="F181" sqref="C181:F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,16 +2209,16 @@
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="27">
+      <c r="C43" s="28">
         <v>39</v>
       </c>
-      <c r="D43" s="27" t="s">
+      <c r="D43" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="27">
+      <c r="F43" s="28">
         <v>207</v>
       </c>
     </row>
@@ -2504,16 +2503,16 @@
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C64" s="7">
+      <c r="C64" s="27">
         <v>60</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="27">
         <v>51</v>
       </c>
     </row>
@@ -2784,16 +2783,16 @@
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C84" s="7">
+      <c r="C84" s="28">
         <v>80</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E84" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="28">
         <v>81</v>
       </c>
     </row>
@@ -3504,16 +3503,16 @@
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C136" s="12">
+      <c r="C136" s="28">
         <v>132</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="D136" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E136" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="28">
         <v>388</v>
       </c>
     </row>
@@ -3602,16 +3601,16 @@
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C143" s="12">
+      <c r="C143" s="28">
         <v>139</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="D143" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="E143" t="s">
+      <c r="E143" s="29" t="s">
         <v>271</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="29">
         <v>194</v>
       </c>
     </row>
@@ -3728,7 +3727,7 @@
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C152" s="27">
+      <c r="C152" s="28">
         <v>148</v>
       </c>
       <c r="D152" s="29" t="s">
@@ -4022,16 +4021,16 @@
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C173" s="12">
+      <c r="C173" s="28">
         <v>169</v>
       </c>
-      <c r="D173" s="15" t="s">
+      <c r="D173" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="E173" t="s">
+      <c r="E173" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="F173" s="11">
+      <c r="F173" s="29">
         <v>100</v>
       </c>
     </row>
@@ -4039,27 +4038,27 @@
       <c r="C174" s="28">
         <v>170</v>
       </c>
-      <c r="D174" s="30" t="s">
+      <c r="D174" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="F174" s="30">
+      <c r="F174" s="29">
         <v>24</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C175">
+      <c r="C175" s="29">
         <v>171</v>
       </c>
-      <c r="D175" s="15" t="s">
+      <c r="D175" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="E175" t="s">
+      <c r="E175" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="F175" s="11">
+      <c r="F175" s="29">
         <v>86</v>
       </c>
     </row>
@@ -4078,44 +4077,44 @@
       </c>
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C177">
+      <c r="C177" s="29">
         <v>173</v>
       </c>
-      <c r="D177" s="15" t="s">
+      <c r="D177" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="E177" t="s">
+      <c r="E177" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="F177" s="11">
+      <c r="F177" s="29">
         <v>51</v>
       </c>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C178">
+      <c r="C178" s="29">
         <v>174</v>
       </c>
-      <c r="D178" s="15" t="s">
+      <c r="D178" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="F178" s="11">
+      <c r="F178" s="29">
         <v>77</v>
       </c>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C179">
+      <c r="C179" s="29">
         <v>175</v>
       </c>
-      <c r="D179" s="15" t="s">
+      <c r="D179" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="F179" s="11">
+      <c r="F179" s="29">
         <v>87</v>
       </c>
     </row>
@@ -4134,16 +4133,16 @@
       </c>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C181">
+      <c r="C181" s="29">
         <v>177</v>
       </c>
-      <c r="D181" s="15" t="s">
+      <c r="D181" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="E181" t="s">
+      <c r="E181" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="F181" s="11">
+      <c r="F181" s="29">
         <v>114</v>
       </c>
     </row>
@@ -4176,16 +4175,16 @@
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C184">
+      <c r="C184" s="29">
         <v>180</v>
       </c>
-      <c r="D184" s="15" t="s">
+      <c r="D184" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="E184" t="s">
+      <c r="E184" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="F184" s="11">
+      <c r="F184" s="29">
         <v>45</v>
       </c>
     </row>

--- a/CoursesList.xlsx
+++ b/CoursesList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repositories\oora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1EB7A9D3-FE50-4231-9FC1-97790A20D422}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{186170A5-37E5-44F9-87EE-4B63CD13CC66}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="383">
   <si>
     <t>https://wipro.udemy.com/cwdatabase-design-introduction/</t>
   </si>
@@ -1664,8 +1664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6391D2-F5D4-4ED5-89B1-B83842CA5A2B}">
   <dimension ref="C5:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="F181" sqref="C181:F181"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F64" sqref="C64:F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2503,16 +2503,16 @@
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C64" s="27">
+      <c r="C64" s="28">
         <v>60</v>
       </c>
-      <c r="D64" s="27" t="s">
+      <c r="D64" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="27" t="s">
+      <c r="E64" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="27">
+      <c r="F64" s="28">
         <v>51</v>
       </c>
     </row>

--- a/CoursesList.xlsx
+++ b/CoursesList.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repositories\oora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repositories\oora\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C08DB134-D836-48FA-BCE4-98925ED15DEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="383">
   <si>
     <t>https://wipro.udemy.com/cwdatabase-design-introduction/</t>
   </si>
@@ -941,40 +942,70 @@
     <t>Meteor and React for Realtime Apps</t>
   </si>
   <si>
-    <t>react-testing</t>
-  </si>
-  <si>
-    <t>mongodb-professional-developer</t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/ionic-3-apps-for-woocommerce-build-an-ecommerce-mobile-app/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ionic 3 Apps for WooCommerce: Build an eCommerce Mobile App </t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/projects-in-expressjs-learn-expressjs-building-10-projects/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Projects in ExpressJS - Learn ExpressJs building 10 projects </t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/luv2code-eclipse-ide-for-beginners/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eclipse IDE for Beginners: Increase Your Java Productivity </t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/react-vr/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">React VR - Creating Virtual Reality Apps </t>
-  </si>
-  <si>
-    <t>the-complete-guide-to-jira-with-real-world-examples</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Learn JIRA with real-world examples (+Confluence bonus) </t>
+    <t>https://wipro.udemy.com/ios-12-app-development-bootcamp/</t>
+  </si>
+  <si>
+    <t>iOS 12 &amp; Swift - The Complete iOS App Development Bootcamp</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/aws-certified-solutions-architect-associate/</t>
+  </si>
+  <si>
+    <t>AWS Certified Solutions Architect - Associate 2018</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/git-bash/</t>
+  </si>
+  <si>
+    <t>Command Line Essentials: Git Bash for Windows</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/javascript-and-the-dom/</t>
+  </si>
+  <si>
+    <t>JavaScript and the DOM for JavaScript Beginners</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/complete-python-3-masterclass-journey/</t>
+  </si>
+  <si>
+    <t>Complete Python 3 Masterclass Journey</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/python-for-finance-and-trading-algorithms/</t>
+  </si>
+  <si>
+    <t>Python for Financial Analysis and Algorithmic Trading</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/python-for-data-science-and-machine-learning-bootcamp/</t>
+  </si>
+  <si>
+    <t>Python for Data Science and Machine Learning Bootcamp</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/scala-and-spark-for-big-data-and-machine-learning/</t>
+  </si>
+  <si>
+    <t>Scala and Spark for Big Data and Machine Learning</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/build-web-apps-using-emberjs-the-complete-course</t>
+  </si>
+  <si>
+    <t>Build Web Apps Using EmberJS: The Complete Course</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/react-2nd-edition/</t>
+  </si>
+  <si>
+    <t>The Complete React Web Developer Course (with Redux)</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/meteor-react/</t>
+  </si>
+  <si>
+    <t>Full-Stack Web Apps with Meteor and React</t>
   </si>
   <si>
     <t>https://wipro.udemy.com/webpack-2-the-complete-developers-guide/</t>
@@ -983,65 +1014,173 @@
     <t>Webpack 2: The Complete Developer's Guide</t>
   </si>
   <si>
+    <t>https://wipro.udemy.com/google-analytics-insights/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google Analytics For Beginners </t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/learn-big-data-the-hadoop-ecosystem-masterclass</t>
+  </si>
+  <si>
     <t>https://wipro.udemy.com/the-complete-elixir-and-phoenix-bootcamp-and-tutorial/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Complete Elixir and Phoenix Bootcamp </t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/javascript-es6-tutorial/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES6 Javascript: The Complete Developer's Guide </t>
+    <t>https://wipro.udemy.com/learn-d3js-for-data-visualization/</t>
+  </si>
+  <si>
+    <t>Learn Big Data: The Hadoop Ecosystem Masterclass</t>
+  </si>
+  <si>
+    <t>Learn and Understand D3.js for Data Visualization</t>
+  </si>
+  <si>
+    <t>The Complete Elixir and Phoenix Bootcamp</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/r-analytics/</t>
+  </si>
+  <si>
+    <t>R Programming: Advanced Analytics In R For Data Science</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/electron-react-tutorial/</t>
+  </si>
+  <si>
+    <t>Electron for Desktop Apps: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/r-level1/</t>
+  </si>
+  <si>
+    <t>R Level 1 - Data Analytics with R</t>
+  </si>
+  <si>
+    <t>UiPath - RPA Robotic Process Automation</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/uipath-robotic-process-automation/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/graphql-with-react-course/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/deeplearning/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/machine-learning-course-with-python/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/data-science-supervised-machine-learning-in-python/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/deep-learning-recurrent-neural-networks-in-python/</t>
   </si>
   <si>
     <t>https://wipro.udemy.com/dart-and-flutter-the-complete-developers-guide/</t>
   </si>
   <si>
-    <t xml:space="preserve">Dart and Flutter: The Complete Developer's Guide </t>
-  </si>
-  <si>
     <t>https://wipro.udemy.com/ethereum-and-solidity-the-complete-developers-guide/</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethereum and Solidity: The Complete Developer's Guide </t>
+    <t>https://wipro.udemy.com/practical-deep-learning-with-keras/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/python-machine-learning/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/the-complete-javascript-course/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/python-and-django-full-stack-web-developer-bootcamp/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/node-with-react-fullstack-web-development/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/server-side-rendering-with-react-and-redux/</t>
   </si>
   <si>
     <t>https://wipro.udemy.com/coding-interview-bootcamp-algorithms-and-data-structure/</t>
   </si>
   <si>
-    <t xml:space="preserve">The Coding Interview Bootcamp: Algorithms + Data Structures </t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/server-side-rendering-with-react-and-redux/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Side Rendering with React and Redux </t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/node-with-react-fullstack-web-development/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Node with React: Fullstack Web Development </t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/electron-react-tutorial/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electron for Desktop Apps: The Complete Developer's Guide </t>
-  </si>
-  <si>
-    <t>https://wipro.udemy.com/graphql-with-react-course/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GraphQL with React: The Complete Developers Guide </t>
+    <t>https://wipro.udemy.com/git-with-bitbucket-and-sourcetree/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/bamboo-continuous-integration-for-devops-developers/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/postman-api-testing-step-by-step-for-beginners/</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/red-hat-openshift/</t>
+  </si>
+  <si>
+    <t>GraphQL with React: The Complete Developers Guide</t>
+  </si>
+  <si>
+    <t>Deep Learning A-Z™: Hands-On Artificial Neural Networks</t>
+  </si>
+  <si>
+    <t>The Complete Machine Learning Course with Python</t>
+  </si>
+  <si>
+    <t>Data Science: Supervised Machine Learning in Python</t>
+  </si>
+  <si>
+    <t>Deep Learning: Recurrent Neural Networks in Python</t>
+  </si>
+  <si>
+    <t>Dart and Flutter: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>Ethereum and Solidity: The Complete Developer's Guide</t>
+  </si>
+  <si>
+    <t>Practical Deep Learning with Keras and Python</t>
+  </si>
+  <si>
+    <t>Machine Learning with Python from Scratch</t>
+  </si>
+  <si>
+    <t>The Complete JavaScript Course 2018: Build Real Projects!</t>
+  </si>
+  <si>
+    <t>Python and Django Full Stack Web Developer Bootcamp</t>
+  </si>
+  <si>
+    <t>Node with React: Fullstack Web Development</t>
+  </si>
+  <si>
+    <t>Server Side Rendering with React and Redux</t>
+  </si>
+  <si>
+    <t>The Coding Interview Bootcamp: Algorithms + Data Structures</t>
+  </si>
+  <si>
+    <t>Red Hat OpenShift With Jenkins: DevOps For Beginners</t>
+  </si>
+  <si>
+    <t>POSTMAN API Testing - Step by Step for Beginners</t>
+  </si>
+  <si>
+    <t>Bamboo: Continuous Integration for DevOps &amp; Developers</t>
+  </si>
+  <si>
+    <t>Git Essentials: Learn Git with Bitbucket and Sourcetree</t>
+  </si>
+  <si>
+    <t>https://wipro.udemy.com/the-complete-web-developer-course-2/</t>
+  </si>
+  <si>
+    <t>The Complete Web Developer Course 2.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1101,6 +1240,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1108,28 +1253,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="7"/>
       <color theme="0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1164,12 +1294,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1186,83 +1310,70 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1546,2412 +1657,2753 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:F178"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6391D2-F5D4-4ED5-89B1-B83842CA5A2B}">
+  <dimension ref="C5:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F197" sqref="C195:F197"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="1">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="5">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
         <v>4</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="6">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" s="5">
         <v>5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="5">
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2">
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="1">
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2">
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>544</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="11">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="11">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="1">
+    <row r="16" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C16" s="11">
         <v>12</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="11">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="1">
         <v>15</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="6">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C21" s="9">
         <v>17</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="9">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="1">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C22" s="2">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="1">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="11">
         <v>19</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="11">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="1">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C24" s="2">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
+    <row r="25" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="2">
         <v>21</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="1">
+    <row r="26" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C26" s="2">
         <v>22</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="1">
+    <row r="27" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C27" s="2">
         <v>23</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="1">
+    <row r="28" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C28" s="2">
         <v>24</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="1">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C29" s="2">
         <v>25</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="1">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C30" s="2">
         <v>26</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="1">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C31" s="2">
         <v>27</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="1">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C32" s="11">
         <v>28</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="11">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="8">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="4">
         <v>29</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="E33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="8">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="8">
+      <c r="F33" s="4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="4">
         <v>30</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="E34" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="4">
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="1">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="11">
         <v>31</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="11">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="9">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="4">
         <v>32</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="4">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="9">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="18">
         <v>33</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="18">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="8">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C38" s="4">
         <v>34</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="4">
         <v>424</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="1">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C39" s="11">
         <v>35</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="11">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C40" s="19">
         <v>36</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="19">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="1">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C41" s="11">
         <v>37</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="11">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="20">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C42" s="18">
         <v>38</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="18">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="8">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C43" s="4">
         <v>39</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="4">
         <v>207</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="8">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C44" s="4">
         <v>40</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="4">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="12">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C45" s="4">
         <v>41</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="12">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C46" s="4">
         <v>42</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="8">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C47" s="4">
         <v>43</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="8">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="4">
         <v>44</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="4">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="8">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" s="4">
         <v>45</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" s="2">
+        <v>46</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C51" s="2">
+        <v>47</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C52" s="4">
+        <v>48</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C53" s="4">
+        <v>49</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F53" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C54" s="4">
+        <v>50</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C55" s="19">
         <v>51</v>
       </c>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="1">
-        <v>46</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F50" s="1">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="1">
-        <v>47</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F51" s="1">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="8">
-        <v>48</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F52" s="8">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="8">
-        <v>49</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="F53" s="8">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="8">
-        <v>50</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="8">
-        <v>51</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="E55" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="19">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="8">
+    <row r="56" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C56" s="7">
         <v>52</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="5" t="s">
+      <c r="E56" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="8">
+    <row r="57" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C57" s="4">
         <v>53</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="E57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="8">
+    <row r="58" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C58" s="4">
         <v>54</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="E58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="8">
+    <row r="59" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C59" s="4">
         <v>55</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="5" t="s">
+      <c r="E59" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="4">
         <v>421</v>
       </c>
     </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="8">
+    <row r="60" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C60" s="21">
         <v>56</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="E60" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="21">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="8">
+    <row r="61" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C61" s="7">
         <v>57</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="5" t="s">
+      <c r="E61" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="7">
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="8">
+    <row r="62" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C62" s="4">
         <v>58</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="E62" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="4">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="9">
+    <row r="63" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C63" s="4">
         <v>59</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="8">
+    <row r="64" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C64" s="4">
         <v>60</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E64" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="4">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="8">
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" s="1">
         <v>61</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="8">
+    <row r="66" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C66" s="1">
         <v>62</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="8">
+    <row r="67" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C67" s="4">
         <v>63</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="4">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="1">
+    <row r="68" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C68" s="2">
         <v>64</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="1">
+    <row r="69" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C69" s="2">
         <v>65</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="1">
+    <row r="70" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C70" s="2">
         <v>66</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="2">
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="8">
+    <row r="71" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C71" s="7">
         <v>67</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="E71" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="1">
+    <row r="72" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="11">
         <v>68</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="11">
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="14">
+    <row r="73" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C73" s="17">
         <v>69</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="14">
+      <c r="F73" s="17">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="8">
+    <row r="74" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C74" s="7">
         <v>70</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="5" t="s">
+      <c r="E74" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="1">
+    <row r="75" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C75" s="2">
         <v>71</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="2">
         <v>51</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="1">
+    <row r="76" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="2">
         <v>72</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="1">
+    <row r="77" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="11">
         <v>73</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="E77" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="15">
+    <row r="78" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="16">
         <v>74</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F78" s="16">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="1">
+    <row r="79" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C79" s="2">
         <v>75</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="4" t="s">
+      <c r="E79" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="1">
+    <row r="80" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C80" s="2">
         <v>76</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="4" t="s">
+      <c r="E80" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="1">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" s="2">
         <v>77</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E81" s="4" t="s">
+      <c r="E81" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="1">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82" s="11">
         <v>78</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="11">
         <v>66</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="1">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" s="2">
         <v>79</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E83" s="4" t="s">
+      <c r="E83" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="8">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C84" s="4">
         <v>80</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="4">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="1">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C85" s="2">
         <v>81</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="1">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C86" s="2">
         <v>82</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="4" t="s">
+      <c r="E86" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="1">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C87" s="2">
         <v>83</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E87" s="4" t="s">
+      <c r="E87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="1">
+      <c r="F87" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="1">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C88" s="2">
         <v>84</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="4" t="s">
+      <c r="E88" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="1">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C89" s="2">
         <v>85</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E89" s="4" t="s">
+      <c r="E89" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="1">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C90" s="2">
         <v>86</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E90" s="4" t="s">
+      <c r="E90" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="2">
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="1">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C91" s="2">
         <v>87</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E91" s="4" t="s">
+      <c r="E91" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="2">
         <v>99</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="1">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C92" s="2">
         <v>88</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E92" s="4" t="s">
+      <c r="E92" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F92" s="1">
+      <c r="F92" s="2">
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="6">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C93" s="9">
         <v>89</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="F93" s="6">
+      <c r="F93" s="9">
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="1">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C94" s="2">
         <v>90</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="E94" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="1">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C95" s="2">
         <v>91</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E95" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F95" s="1">
+      <c r="F95" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="1">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C96" s="2">
         <v>92</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E96" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="1">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C97" s="2">
         <v>93</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E97" s="4" t="s">
+      <c r="E97" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="F97" s="1">
+      <c r="F97" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="1">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C98" s="2">
         <v>94</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C99" s="1">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C99" s="2">
         <v>95</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="E99" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F99" s="1">
+      <c r="F99" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="1">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C100" s="2">
         <v>96</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E100" s="4" t="s">
+      <c r="E100" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F100" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="1">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C101" s="2">
         <v>97</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="E101" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F101" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C102" s="1">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C102" s="2">
         <v>98</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="E102" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F102" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C103" s="1">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C103" s="2">
         <v>99</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="E103" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C104" s="1">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C104" s="2">
         <v>100</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="E104" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C105" s="1">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C105" s="2">
         <v>101</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="E105" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C106" s="1">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C106" s="2">
         <v>102</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="E106" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F106" s="1">
+      <c r="F106" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C107" s="1">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C107" s="2">
         <v>103</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E107" s="4" t="s">
+      <c r="E107" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C108" s="1">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C108" s="2">
         <v>104</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="E108" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C109" s="1">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C109" s="2">
         <v>105</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E109" s="4" t="s">
+      <c r="E109" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F109" s="1">
+      <c r="F109" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C110" s="1">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C110" s="2">
         <v>106</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E110" s="4" t="s">
+      <c r="E110" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F110" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C111" s="1">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C111" s="2">
         <v>107</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E111" s="4" t="s">
+      <c r="E111" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F111" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C112" s="1">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C112" s="2">
         <v>108</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E112" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C113" s="1">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C113" s="2">
         <v>109</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D113" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E113" s="4" t="s">
+      <c r="E113" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C114" s="1">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C114" s="2">
         <v>110</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="D114" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E114" s="4" t="s">
+      <c r="E114" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C115" s="1">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C115" s="11">
         <v>111</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="D115" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="E115" s="4" t="s">
+      <c r="E115" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F115" s="11">
         <v>211</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C116" s="1">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C116" s="2">
         <v>112</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="D116" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="E116" s="4" t="s">
+      <c r="E116" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F116" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C117" s="1">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C117" s="11">
         <v>113</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="D117" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E117" s="4" t="s">
+      <c r="E117" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F117" s="11">
         <v>80</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C118" s="2">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C118" s="27">
         <v>114</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="27">
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C119" s="2">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C119" s="4">
         <v>115</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="4">
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C120" s="1">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C120" s="2">
         <v>116</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D120" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E120" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F120" s="2">
         <v>72</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C121" s="1">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C121" s="2">
         <v>117</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D121" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="E121" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F121" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C122" s="1">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C122" s="2">
         <v>118</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D122" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E122" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F122" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C123" s="1">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C123" s="2">
         <v>119</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D123" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E123" s="4" t="s">
+      <c r="E123" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F123" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C124" s="1">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C124" s="2">
         <v>120</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F124" s="2">
         <v>37</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C125" s="1">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C125" s="2">
         <v>121</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D125" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E125" s="4" t="s">
+      <c r="E125" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F125" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C126" s="1">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C126" s="2">
         <v>122</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="D126" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="E126" s="4" t="s">
+      <c r="E126" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F126" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C127" s="1">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C127" s="2">
         <v>123</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="D127" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E127" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F127" s="2">
         <v>79</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C128" s="1">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C128" s="2">
         <v>124</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="D128" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E128" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F128" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C129" s="1">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C129" s="2">
         <v>125</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D129" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E129" s="4" t="s">
+      <c r="E129" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F129" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C130" s="1">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C130" s="2">
         <v>126</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D130" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="E130" s="4" t="s">
+      <c r="E130" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F130" s="2">
         <v>151</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C131" s="1">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C131" s="2">
         <v>127</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="D131" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E131" s="4"/>
-      <c r="F131" s="1"/>
-    </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C132" s="1">
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+    </row>
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C132" s="2">
         <v>128</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="E132" s="4"/>
-      <c r="F132" s="1"/>
-    </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C133" s="1">
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+    </row>
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C133" s="2">
         <v>129</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="E133" s="4" t="s">
+      <c r="E133" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F133" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C134" s="1">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C134" s="2">
         <v>130</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D134" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E134" s="4" t="s">
+      <c r="E134" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F134" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C135" s="1">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C135" s="11">
         <v>131</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D135" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E135" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F135" s="11">
         <v>86</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C136" s="17">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C136" s="4">
         <v>132</v>
       </c>
-      <c r="D136" s="10" t="s">
+      <c r="D136" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="E136" s="5" t="s">
+      <c r="E136" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F136" s="4">
         <v>388</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C137" s="17">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C137" s="12">
         <v>133</v>
       </c>
-      <c r="D137" s="10" t="s">
+      <c r="D137" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="E137" t="s">
         <v>259</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F137" s="2">
         <v>265</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C138" s="1">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C138" s="11">
         <v>134</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="E138" s="4" t="s">
+      <c r="E138" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F138" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C139" s="18">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C139" s="24">
         <v>135</v>
       </c>
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="E139" s="22" t="s">
+      <c r="E139" s="25" t="s">
         <v>263</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="25">
         <v>429</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C140" s="17">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C140" s="4">
         <v>136</v>
       </c>
-      <c r="D140" s="10" t="s">
+      <c r="D140" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="E140" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="F140" s="23">
+      <c r="F140" s="18">
         <v>141</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C141" s="1">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C141" s="11">
         <v>137</v>
       </c>
-      <c r="D141" s="1" t="s">
+      <c r="D141" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E141" s="4" t="s">
+      <c r="E141" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F141" s="11">
         <v>99</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C142" s="17">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C142" s="4">
         <v>138</v>
       </c>
-      <c r="D142" s="10" t="s">
+      <c r="D142" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="E142" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="F142" s="23">
+      <c r="F142" s="18">
         <v>166</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C143" s="19">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C143" s="4">
         <v>139</v>
       </c>
-      <c r="D143" s="19" t="s">
+      <c r="D143" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="E143" s="22" t="s">
+      <c r="E143" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="18">
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C144" s="1">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C144" s="11">
         <v>140</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="E144" s="4" t="s">
+      <c r="E144" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F144" s="11">
         <v>242</v>
       </c>
     </row>
-    <row r="145" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C145" s="1">
+    <row r="145" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C145" s="4">
         <v>141</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="E145" s="26" t="s">
+      <c r="E145" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F145" s="18">
         <v>308</v>
       </c>
     </row>
-    <row r="146" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C146" s="17">
+    <row r="146" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C146" s="2">
         <v>142</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D146" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="E146" s="5" t="s">
+      <c r="E146" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="F146" s="23">
+      <c r="F146" s="11">
         <v>235</v>
       </c>
     </row>
-    <row r="147" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C147" s="17">
+    <row r="147" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C147" s="4">
         <v>143</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="D147" s="18" t="s">
         <v>280</v>
       </c>
-      <c r="E147" s="5" t="s">
+      <c r="E147" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="F147" s="23">
+      <c r="F147" s="18">
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C148" s="1">
+    <row r="148" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C148" s="11">
         <v>144</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="E148" s="4" t="s">
+      <c r="E148" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F148" s="11">
         <v>142</v>
       </c>
     </row>
-    <row r="149" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C149" s="1">
+    <row r="149" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C149" s="11">
         <v>145</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="E149" s="4" t="s">
+      <c r="E149" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F149" s="11">
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C150" s="17">
+    <row r="150" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C150" s="4">
         <v>146</v>
       </c>
-      <c r="D150" s="10" t="s">
+      <c r="D150" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="E150" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="F150" s="23">
+      <c r="F150" s="18">
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C151" s="17">
+    <row r="151" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C151" s="4">
         <v>147</v>
       </c>
-      <c r="D151" s="10" t="s">
+      <c r="D151" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="E151" s="5" t="s">
+      <c r="E151" s="18" t="s">
         <v>287</v>
       </c>
-      <c r="F151" s="23">
+      <c r="F151" s="18">
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C152" s="17">
+    <row r="152" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C152" s="4">
         <v>148</v>
       </c>
-      <c r="D152" s="10" t="s">
+      <c r="D152" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="E152" s="5" t="s">
+      <c r="E152" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="F152" s="23">
+      <c r="F152" s="18">
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C153" s="1">
+    <row r="153" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C153" s="20">
         <v>149</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" s="20" t="s">
         <v>292</v>
       </c>
-      <c r="E153" s="26" t="s">
+      <c r="E153" s="20" t="s">
         <v>291</v>
       </c>
-      <c r="F153" s="1">
+      <c r="F153" s="20">
         <v>154</v>
       </c>
     </row>
-    <row r="154" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C154" s="17">
+    <row r="154" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C154" s="20">
         <v>150</v>
       </c>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="20" t="s">
         <v>294</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="E154" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="F154" s="23">
+      <c r="F154" s="20">
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C155" s="17">
+    <row r="155" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C155" s="2">
         <v>151</v>
       </c>
-      <c r="D155" s="10" t="s">
+      <c r="D155" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="E155" s="5" t="s">
+      <c r="E155" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="F155" s="23">
+      <c r="F155" s="11">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C156" s="18">
+    <row r="156" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C156" s="19">
         <v>152</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="E156" s="24" t="s">
+      <c r="E156" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="F156" s="18">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="157" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C157" s="1">
+      <c r="F156" s="23">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="157" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C157" s="11">
         <v>153</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E157" s="4" t="s">
+      <c r="E157" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F157" s="1">
+      <c r="F157" s="11">
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C158" s="1">
+    <row r="158" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C158" s="4">
         <v>154</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="E158" s="26" t="s">
+      <c r="E158" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="F158" s="1">
+      <c r="F158" s="18">
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C159" s="1">
+    <row r="159" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C159" s="4">
         <v>155</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E159" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="F159" s="1">
+      <c r="F159" s="18">
         <v>112</v>
       </c>
     </row>
-    <row r="160" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C160" s="1">
+    <row r="160" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C160" s="12">
         <v>156</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="F160">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="161" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C161" s="12">
+        <v>157</v>
+      </c>
+      <c r="D161" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E161" t="s">
         <v>307</v>
       </c>
-      <c r="F160" s="1">
+      <c r="F161">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="162" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C162" s="4">
+        <v>158</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="E162" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="F162" s="18">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="163" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C163" s="12">
+        <v>159</v>
+      </c>
+      <c r="D163" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E163" t="s">
+        <v>311</v>
+      </c>
+      <c r="F163">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C164" s="4">
+        <v>160</v>
+      </c>
+      <c r="D164" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="E164" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="F164" s="18">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="165" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C165" s="4">
+        <v>161</v>
+      </c>
+      <c r="D165" s="18" t="s">
+        <v>316</v>
+      </c>
+      <c r="E165" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="F165" s="18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="166" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C166" s="12">
+        <v>162</v>
+      </c>
+      <c r="D166" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E166" t="s">
+        <v>317</v>
+      </c>
+      <c r="F166">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="167" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C167" s="4">
+        <v>163</v>
+      </c>
+      <c r="D167" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E167" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F167" s="18">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="168" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C168" s="4">
+        <v>164</v>
+      </c>
+      <c r="D168" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E168" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="F168" s="18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C169" s="2">
+        <v>165</v>
+      </c>
+      <c r="D169" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F169" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="170" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C170" s="2">
+        <v>166</v>
+      </c>
+      <c r="D170" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="F170" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="171" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C171" s="2">
+        <v>167</v>
+      </c>
+      <c r="D171" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="E171" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F171" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="172" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C172" s="2">
+        <v>168</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="E172" t="s">
+        <v>362</v>
+      </c>
+      <c r="F172" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C173" s="4">
+        <v>169</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="E173" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="F173" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C174" s="4">
+        <v>170</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="E174" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="F174" s="18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C175" s="18">
+        <v>171</v>
+      </c>
+      <c r="D175" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E175" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="F175" s="18">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C176" s="18">
+        <v>172</v>
+      </c>
+      <c r="D176" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="E176" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="F176" s="18">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C177" s="18">
+        <v>173</v>
+      </c>
+      <c r="D177" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="E177" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="F177" s="18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C178" s="18">
+        <v>174</v>
+      </c>
+      <c r="D178" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="E178" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="F178" s="18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="179" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C179" s="18">
+        <v>175</v>
+      </c>
+      <c r="D179" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="E179" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="F179" s="18">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C180" s="18">
+        <v>176</v>
+      </c>
+      <c r="D180" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="E180" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="F180" s="18">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C181" s="18">
+        <v>177</v>
+      </c>
+      <c r="D181" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="E181" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="F181" s="18">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C182" s="18">
+        <v>178</v>
+      </c>
+      <c r="D182" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E182" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" s="18">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C183">
+        <v>179</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="E183" t="s">
+        <v>347</v>
+      </c>
+      <c r="F183" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C184" s="18">
+        <v>180</v>
+      </c>
+      <c r="D184" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E184" s="18" t="s">
+        <v>348</v>
+      </c>
+      <c r="F184" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C185" s="18">
+        <v>181</v>
+      </c>
+      <c r="D185" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E185" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="F185" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C186">
+        <v>182</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="E186" t="s">
+        <v>350</v>
+      </c>
+      <c r="F186" s="11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="187" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C187">
+        <v>183</v>
+      </c>
+      <c r="D187" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="E187" t="s">
+        <v>351</v>
+      </c>
+      <c r="F187" s="11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C188" s="18">
+        <v>184</v>
+      </c>
+      <c r="D188" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="E188" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F188" s="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C189" s="18">
+        <v>185</v>
+      </c>
+      <c r="D189" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="E189" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="F189" s="18">
         <v>65</v>
       </c>
     </row>
-    <row r="161" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C161" s="1">
-        <v>157</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="F161" s="1">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="162" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C162" s="1">
-        <v>158</v>
-      </c>
-      <c r="D162" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F162" s="1">
+    <row r="190" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C190">
+        <v>186</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="E190" t="s">
+        <v>354</v>
+      </c>
+      <c r="F190" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C191">
+        <v>187</v>
+      </c>
+      <c r="D191" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="E191" t="s">
+        <v>355</v>
+      </c>
+      <c r="F191" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C192">
+        <v>188</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="E192" t="s">
+        <v>356</v>
+      </c>
+      <c r="F192" s="11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="193" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C193">
+        <v>189</v>
+      </c>
+      <c r="D193" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="E193" t="s">
+        <v>357</v>
+      </c>
+      <c r="F193" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="194" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C194">
+        <v>190</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="E194" t="s">
+        <v>358</v>
+      </c>
+      <c r="F194" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="195" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C195" s="18">
+        <v>191</v>
+      </c>
+      <c r="D195" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="E195" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F195" s="18">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C196" s="18">
+        <v>192</v>
+      </c>
+      <c r="D196" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="E196" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="F196" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="197" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C197" s="18">
+        <v>193</v>
+      </c>
+      <c r="D197" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="E197" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F197" s="18">
         <v>19</v>
       </c>
     </row>
-    <row r="163" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C163" s="1">
-        <v>159</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E163" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="F163" s="1">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="164" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C164" s="1">
-        <v>160</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E164" s="4" t="s">
+    <row r="198" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C198">
+        <v>194</v>
+      </c>
+      <c r="D198" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="E198" t="s">
+        <v>381</v>
+      </c>
+      <c r="F198" s="11">
         <v>315</v>
       </c>
-      <c r="F164" s="1">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="165" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C165" s="17">
-        <v>161</v>
-      </c>
-      <c r="D165" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="E165" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="F165" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="166" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C166" s="17">
-        <v>162</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E166" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="F166" s="1">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="167" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C167" s="17">
-        <v>163</v>
-      </c>
-      <c r="D167" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="E167" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="F167" s="1">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="168" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C168" s="17">
-        <v>164</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E168" s="5" t="s">
-        <v>323</v>
-      </c>
-      <c r="F168" s="1">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="169" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C169" s="17">
-        <v>165</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="E169" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="F169" s="1">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="170" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C170" s="17">
-        <v>166</v>
-      </c>
-      <c r="D170" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E170" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="F170" s="1">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="171" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C171" s="17">
-        <v>167</v>
-      </c>
-      <c r="D171" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="F171" s="1">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="172" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C172" s="17">
-        <v>168</v>
-      </c>
-      <c r="D172" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="F172" s="1">
+    </row>
+    <row r="199" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C199">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C200">
         <v>196</v>
-      </c>
-    </row>
-    <row r="173" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C173" s="17">
-        <v>169</v>
-      </c>
-      <c r="D173" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="F173" s="1">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="174" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C174" s="17">
-        <v>170</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="F174" s="1">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D177" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D178" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E165" r:id="rId1"/>
-    <hyperlink ref="E42" r:id="rId2"/>
-    <hyperlink ref="E32" r:id="rId3"/>
-    <hyperlink ref="E128" r:id="rId4"/>
-    <hyperlink ref="E26" r:id="rId5"/>
+    <hyperlink ref="E160" r:id="rId1" xr:uid="{CC1BBC9C-E5DC-4F5B-9EE4-1400E5D93419}"/>
+    <hyperlink ref="E49" r:id="rId2" xr:uid="{DA5A9E95-817C-4DDC-AFD7-C7498FBD1BA8}"/>
+    <hyperlink ref="E42" r:id="rId3" xr:uid="{E680BE8E-E59D-4CFA-91A7-F2BA624235AB}"/>
+    <hyperlink ref="E32" r:id="rId4" xr:uid="{9BF0118B-59A5-4CAC-974B-0895E4E964B2}"/>
+    <hyperlink ref="E128" r:id="rId5" xr:uid="{8569BF2F-F821-46E8-9F10-B65513C12B6C}"/>
+    <hyperlink ref="E26" r:id="rId6" xr:uid="{8B77A483-EF62-440C-8701-C7371AC2750B}"/>
+    <hyperlink ref="E38" r:id="rId7" xr:uid="{DAEC7483-4102-4021-9F76-F73F6B92E472}"/>
+    <hyperlink ref="E171" r:id="rId8" xr:uid="{A49FCC1A-F460-4F3E-9ABA-D45309B1B885}"/>
+    <hyperlink ref="E164" r:id="rId9" xr:uid="{3E20521B-9CB8-4089-9B93-4AFD14829223}"/>
+    <hyperlink ref="E185" r:id="rId10" xr:uid="{14A4F1E0-020F-4737-9BD9-E098AB4B1079}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/CoursesList.xlsx
+++ b/CoursesList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Repositories\oora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C08DB134-D836-48FA-BCE4-98925ED15DEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0D0FB892-E121-4690-8F4C-90D16C288648}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1310,15 +1310,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1333,46 +1330,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1658,87 +1688,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6391D2-F5D4-4ED5-89B1-B83842CA5A2B}">
-  <dimension ref="C5:F200"/>
+  <dimension ref="C5:F226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F197" sqref="C195:F197"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="78.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.21875" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" style="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>4</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>112</v>
       </c>
     </row>
@@ -1746,13 +1776,13 @@
       <c r="C10" s="1">
         <v>6</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="5">
         <v>9</v>
       </c>
     </row>
@@ -1760,27 +1790,27 @@
       <c r="C11" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12">
+      <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="17">
         <v>544</v>
       </c>
     </row>
@@ -1788,13 +1818,13 @@
       <c r="C13" s="2">
         <v>9</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>151</v>
       </c>
     </row>
@@ -1802,41 +1832,41 @@
       <c r="C14" s="2">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="11">
+      <c r="C15" s="2">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="4">
         <v>97</v>
       </c>
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C16" s="11">
+      <c r="C16" s="2">
         <v>12</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="4">
         <v>95</v>
       </c>
     </row>
@@ -1844,13 +1874,13 @@
       <c r="C17" s="1">
         <v>13</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="5">
         <v>20</v>
       </c>
     </row>
@@ -1858,13 +1888,13 @@
       <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1872,13 +1902,13 @@
       <c r="C19" s="1">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="5">
         <v>36</v>
       </c>
     </row>
@@ -1886,27 +1916,27 @@
       <c r="C20" s="1">
         <v>16</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C21" s="9">
+      <c r="C21" s="7">
         <v>17</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="16">
         <v>39</v>
       </c>
     </row>
@@ -1914,27 +1944,27 @@
       <c r="C22" s="2">
         <v>18</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>129</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C23" s="11">
+      <c r="C23" s="2">
         <v>19</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="4">
         <v>23</v>
       </c>
     </row>
@@ -1942,13 +1972,13 @@
       <c r="C24" s="2">
         <v>20</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>125</v>
       </c>
     </row>
@@ -1956,13 +1986,13 @@
       <c r="C25" s="2">
         <v>21</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>37</v>
       </c>
     </row>
@@ -1970,13 +2000,13 @@
       <c r="C26" s="2">
         <v>22</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>51</v>
       </c>
     </row>
@@ -1984,13 +2014,13 @@
       <c r="C27" s="2">
         <v>23</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>34</v>
       </c>
     </row>
@@ -1998,13 +2028,13 @@
       <c r="C28" s="2">
         <v>24</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>21</v>
       </c>
     </row>
@@ -2012,13 +2042,13 @@
       <c r="C29" s="2">
         <v>25</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>26</v>
       </c>
     </row>
@@ -2026,13 +2056,13 @@
       <c r="C30" s="2">
         <v>26</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>27</v>
       </c>
     </row>
@@ -2040,265 +2070,265 @@
       <c r="C31" s="2">
         <v>27</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="11">
+      <c r="C32" s="2">
         <v>28</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="4">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>29</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="17">
         <v>409</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <v>30</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="17">
         <v>247</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C35" s="11">
+      <c r="C35" s="2">
         <v>31</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="4">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C36" s="4">
+      <c r="C36" s="3">
         <v>32</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="17">
         <v>68</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C37" s="18">
+      <c r="C37" s="3">
         <v>33</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="17">
         <v>88</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C38" s="4">
+      <c r="C38" s="3">
         <v>34</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="17">
         <v>424</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C39" s="11">
+      <c r="C39" s="2">
         <v>35</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C40" s="19">
+      <c r="C40" s="11">
         <v>36</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <v>91</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C41" s="11">
+      <c r="C41" s="2">
         <v>37</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C42" s="18">
+      <c r="C42" s="3">
         <v>38</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="17">
         <v>308</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C43" s="4">
+      <c r="C43" s="3">
         <v>39</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="17">
         <v>207</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C44" s="4">
+      <c r="C44" s="3">
         <v>40</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="17">
         <v>101</v>
       </c>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C45" s="4">
+      <c r="C45" s="3">
         <v>41</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="17">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C46" s="4">
+      <c r="C46" s="3">
         <v>42</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C47" s="4">
+      <c r="C47" s="3">
         <v>43</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C48" s="4">
+      <c r="C48" s="3">
         <v>44</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="17">
         <v>91</v>
       </c>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C49" s="4">
+      <c r="C49" s="3">
         <v>45</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="17">
         <v>98</v>
       </c>
     </row>
@@ -2306,13 +2336,13 @@
       <c r="C50" s="2">
         <v>46</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>362</v>
       </c>
     </row>
@@ -2320,195 +2350,195 @@
       <c r="C51" s="2">
         <v>47</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>259</v>
       </c>
     </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C52" s="4">
+      <c r="C52" s="3">
         <v>48</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="17">
         <v>136</v>
       </c>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C53" s="4">
+      <c r="C53" s="3">
         <v>49</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="17">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C54" s="4">
+      <c r="C54" s="3">
         <v>50</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="17">
         <v>75</v>
       </c>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C55" s="19">
+      <c r="C55" s="11">
         <v>51</v>
       </c>
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="F55" s="19">
+      <c r="F55" s="18">
         <v>142</v>
       </c>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>52</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="19">
         <v>184</v>
       </c>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C57" s="4">
+      <c r="C57" s="3">
         <v>53</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C58" s="4">
+      <c r="C58" s="3">
         <v>54</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="F58" s="4">
+      <c r="F58" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="59" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C59" s="4">
+      <c r="C59" s="3">
         <v>55</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="17">
         <v>421</v>
       </c>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C60" s="21">
+      <c r="C60" s="12">
         <v>56</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="20">
         <v>21</v>
       </c>
     </row>
     <row r="61" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>57</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="19">
         <v>107</v>
       </c>
     </row>
     <row r="62" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C62" s="4">
+      <c r="C62" s="3">
         <v>58</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="17">
         <v>58</v>
       </c>
     </row>
     <row r="63" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C63" s="4">
+      <c r="C63" s="3">
         <v>59</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="17">
         <v>64</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C64" s="4">
+      <c r="C64" s="3">
         <v>60</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F64" s="4">
+      <c r="F64" s="17">
         <v>51</v>
       </c>
     </row>
@@ -2516,13 +2546,13 @@
       <c r="C65" s="1">
         <v>61</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="5">
         <v>31</v>
       </c>
     </row>
@@ -2530,27 +2560,27 @@
       <c r="C66" s="1">
         <v>62</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F66" s="1">
+      <c r="F66" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C67" s="4">
+      <c r="C67" s="3">
         <v>63</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="17">
         <v>63</v>
       </c>
     </row>
@@ -2558,13 +2588,13 @@
       <c r="C68" s="2">
         <v>64</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="4">
         <v>31</v>
       </c>
     </row>
@@ -2572,13 +2602,13 @@
       <c r="C69" s="2">
         <v>65</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="4">
         <v>24</v>
       </c>
     </row>
@@ -2586,69 +2616,69 @@
       <c r="C70" s="2">
         <v>66</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="4">
         <v>59</v>
       </c>
     </row>
     <row r="71" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>67</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="19">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C72" s="11">
+      <c r="C72" s="2">
         <v>68</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="4">
         <v>122</v>
       </c>
     </row>
     <row r="73" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C73" s="17">
+      <c r="C73" s="10">
         <v>69</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E73" s="17" t="s">
+      <c r="E73" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="21">
         <v>34</v>
       </c>
     </row>
     <row r="74" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>70</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="19">
         <v>83</v>
       </c>
     </row>
@@ -2656,13 +2686,13 @@
       <c r="C75" s="2">
         <v>71</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="4">
         <v>51</v>
       </c>
     </row>
@@ -2670,41 +2700,41 @@
       <c r="C76" s="2">
         <v>72</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="4">
         <v>88</v>
       </c>
     </row>
     <row r="77" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C77" s="11">
+      <c r="C77" s="2">
         <v>73</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="4">
         <v>47</v>
       </c>
     </row>
     <row r="78" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C78" s="16">
+      <c r="C78" s="9">
         <v>74</v>
       </c>
-      <c r="D78" s="16" t="s">
+      <c r="D78" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F78" s="16">
+      <c r="F78" s="22">
         <v>85</v>
       </c>
     </row>
@@ -2712,13 +2742,13 @@
       <c r="C79" s="2">
         <v>75</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="4">
         <v>47</v>
       </c>
     </row>
@@ -2726,13 +2756,13 @@
       <c r="C80" s="2">
         <v>76</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="4">
         <v>26</v>
       </c>
     </row>
@@ -2740,27 +2770,27 @@
       <c r="C81" s="2">
         <v>77</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="4">
         <v>167</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C82" s="11">
+      <c r="C82" s="2">
         <v>78</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F82" s="4">
         <v>66</v>
       </c>
     </row>
@@ -2768,27 +2798,27 @@
       <c r="C83" s="2">
         <v>79</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C84" s="4">
+      <c r="C84" s="3">
         <v>80</v>
       </c>
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="4" t="s">
+      <c r="E84" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F84" s="4">
+      <c r="F84" s="17">
         <v>81</v>
       </c>
     </row>
@@ -2796,13 +2826,13 @@
       <c r="C85" s="2">
         <v>81</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="4">
         <v>44</v>
       </c>
     </row>
@@ -2810,13 +2840,13 @@
       <c r="C86" s="2">
         <v>82</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="4">
         <v>80</v>
       </c>
     </row>
@@ -2824,13 +2854,13 @@
       <c r="C87" s="2">
         <v>83</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="4">
         <v>154</v>
       </c>
     </row>
@@ -2838,13 +2868,13 @@
       <c r="C88" s="2">
         <v>84</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="4">
         <v>54</v>
       </c>
     </row>
@@ -2852,13 +2882,13 @@
       <c r="C89" s="2">
         <v>85</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2866,13 +2896,13 @@
       <c r="C90" s="2">
         <v>86</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="4">
         <v>54</v>
       </c>
     </row>
@@ -2880,13 +2910,13 @@
       <c r="C91" s="2">
         <v>87</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="4">
         <v>99</v>
       </c>
     </row>
@@ -2894,27 +2924,27 @@
       <c r="C92" s="2">
         <v>88</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="4">
         <v>62</v>
       </c>
     </row>
     <row r="93" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C93" s="9">
+      <c r="C93" s="7">
         <v>89</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="16">
         <v>46</v>
       </c>
     </row>
@@ -2922,13 +2952,13 @@
       <c r="C94" s="2">
         <v>90</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="4">
         <v>40</v>
       </c>
     </row>
@@ -2936,13 +2966,13 @@
       <c r="C95" s="2">
         <v>91</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="4">
         <v>24</v>
       </c>
     </row>
@@ -2950,13 +2980,13 @@
       <c r="C96" s="2">
         <v>92</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="4">
         <v>12</v>
       </c>
     </row>
@@ -2964,13 +2994,13 @@
       <c r="C97" s="2">
         <v>93</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="4">
         <v>15</v>
       </c>
     </row>
@@ -2978,13 +3008,13 @@
       <c r="C98" s="2">
         <v>94</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="4">
         <v>20</v>
       </c>
     </row>
@@ -2992,13 +3022,13 @@
       <c r="C99" s="2">
         <v>95</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="4">
         <v>37</v>
       </c>
     </row>
@@ -3006,13 +3036,13 @@
       <c r="C100" s="2">
         <v>96</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="4">
         <v>15</v>
       </c>
     </row>
@@ -3020,13 +3050,13 @@
       <c r="C101" s="2">
         <v>97</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="4">
         <v>15</v>
       </c>
     </row>
@@ -3034,13 +3064,13 @@
       <c r="C102" s="2">
         <v>98</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="4">
         <v>12</v>
       </c>
     </row>
@@ -3048,13 +3078,13 @@
       <c r="C103" s="2">
         <v>99</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="4">
         <v>21</v>
       </c>
     </row>
@@ -3062,13 +3092,13 @@
       <c r="C104" s="2">
         <v>100</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3076,13 +3106,13 @@
       <c r="C105" s="2">
         <v>101</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="4">
         <v>35</v>
       </c>
     </row>
@@ -3090,13 +3120,13 @@
       <c r="C106" s="2">
         <v>102</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="4">
         <v>77</v>
       </c>
     </row>
@@ -3104,13 +3134,13 @@
       <c r="C107" s="2">
         <v>103</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="4">
         <v>76</v>
       </c>
     </row>
@@ -3118,13 +3148,13 @@
       <c r="C108" s="2">
         <v>104</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="4">
         <v>61</v>
       </c>
     </row>
@@ -3132,13 +3162,13 @@
       <c r="C109" s="2">
         <v>105</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="4">
         <v>13</v>
       </c>
     </row>
@@ -3146,13 +3176,13 @@
       <c r="C110" s="2">
         <v>106</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3160,13 +3190,13 @@
       <c r="C111" s="2">
         <v>107</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="4">
         <v>36</v>
       </c>
     </row>
@@ -3174,13 +3204,13 @@
       <c r="C112" s="2">
         <v>108</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="4">
         <v>81</v>
       </c>
     </row>
@@ -3188,13 +3218,13 @@
       <c r="C113" s="2">
         <v>109</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="4">
         <v>151</v>
       </c>
     </row>
@@ -3202,27 +3232,27 @@
       <c r="C114" s="2">
         <v>110</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="4">
         <v>163</v>
       </c>
     </row>
     <row r="115" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C115" s="11">
+      <c r="C115" s="2">
         <v>111</v>
       </c>
-      <c r="D115" s="11" t="s">
+      <c r="D115" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E115" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="4">
         <v>211</v>
       </c>
     </row>
@@ -3230,55 +3260,55 @@
       <c r="C116" s="2">
         <v>112</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="4">
         <v>60</v>
       </c>
     </row>
     <row r="117" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C117" s="11">
+      <c r="C117" s="2">
         <v>113</v>
       </c>
-      <c r="D117" s="11" t="s">
+      <c r="D117" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E117" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="118" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C118" s="27">
+      <c r="C118" s="14">
         <v>114</v>
       </c>
-      <c r="D118" s="27" t="s">
+      <c r="D118" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="E118" s="27" t="s">
+      <c r="E118" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="F118" s="27">
+      <c r="F118" s="23">
         <v>34</v>
       </c>
     </row>
     <row r="119" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C119" s="4">
+      <c r="C119" s="3">
         <v>115</v>
       </c>
-      <c r="D119" s="4" t="s">
+      <c r="D119" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="E119" s="4" t="s">
+      <c r="E119" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="F119" s="4">
+      <c r="F119" s="17">
         <v>32</v>
       </c>
     </row>
@@ -3286,13 +3316,13 @@
       <c r="C120" s="2">
         <v>116</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="4">
         <v>72</v>
       </c>
     </row>
@@ -3300,13 +3330,13 @@
       <c r="C121" s="2">
         <v>117</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="4">
         <v>39</v>
       </c>
     </row>
@@ -3314,13 +3344,13 @@
       <c r="C122" s="2">
         <v>118</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="4">
         <v>90</v>
       </c>
     </row>
@@ -3328,13 +3358,13 @@
       <c r="C123" s="2">
         <v>119</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="4">
         <v>96</v>
       </c>
     </row>
@@ -3342,13 +3372,13 @@
       <c r="C124" s="2">
         <v>120</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="4">
         <v>37</v>
       </c>
     </row>
@@ -3356,13 +3386,13 @@
       <c r="C125" s="2">
         <v>121</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="4">
         <v>67</v>
       </c>
     </row>
@@ -3370,13 +3400,13 @@
       <c r="C126" s="2">
         <v>122</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="4">
         <v>96</v>
       </c>
     </row>
@@ -3384,13 +3414,13 @@
       <c r="C127" s="2">
         <v>123</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="4">
         <v>79</v>
       </c>
     </row>
@@ -3398,13 +3428,13 @@
       <c r="C128" s="2">
         <v>124</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E128" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="4">
         <v>47</v>
       </c>
     </row>
@@ -3412,13 +3442,13 @@
       <c r="C129" s="2">
         <v>125</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="E129" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="4">
         <v>29</v>
       </c>
     </row>
@@ -3426,13 +3456,13 @@
       <c r="C130" s="2">
         <v>126</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="4">
         <v>151</v>
       </c>
     </row>
@@ -3440,33 +3470,33 @@
       <c r="C131" s="2">
         <v>127</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
     </row>
     <row r="132" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C132" s="2">
         <v>128</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
     </row>
     <row r="133" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C133" s="2">
         <v>129</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="4">
         <v>25</v>
       </c>
     </row>
@@ -3474,167 +3504,167 @@
       <c r="C134" s="2">
         <v>130</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="4">
         <v>167</v>
       </c>
     </row>
     <row r="135" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C135" s="11">
+      <c r="C135" s="2">
         <v>131</v>
       </c>
-      <c r="D135" s="11" t="s">
+      <c r="D135" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E135" s="11" t="s">
+      <c r="E135" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F135" s="11">
+      <c r="F135" s="4">
         <v>86</v>
       </c>
     </row>
     <row r="136" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C136" s="4">
+      <c r="C136" s="3">
         <v>132</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="F136" s="4">
+      <c r="F136" s="17">
         <v>388</v>
       </c>
     </row>
     <row r="137" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C137" s="12">
+      <c r="C137" s="14">
         <v>133</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D137" s="23" t="s">
         <v>260</v>
       </c>
-      <c r="E137" t="s">
+      <c r="E137" s="23" t="s">
         <v>259</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="23">
         <v>265</v>
       </c>
     </row>
     <row r="138" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C138" s="11">
+      <c r="C138" s="2">
         <v>134</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="D138" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E138" s="11" t="s">
+      <c r="E138" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F138" s="4">
         <v>11</v>
       </c>
     </row>
     <row r="139" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C139" s="24">
+      <c r="C139" s="13">
         <v>135</v>
       </c>
-      <c r="D139" s="25" t="s">
+      <c r="D139" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="E139" s="25" t="s">
+      <c r="E139" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="F139" s="25">
+      <c r="F139" s="24">
         <v>429</v>
       </c>
     </row>
     <row r="140" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C140" s="4">
+      <c r="C140" s="3">
         <v>136</v>
       </c>
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="17">
         <v>141</v>
       </c>
     </row>
     <row r="141" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C141" s="11">
+      <c r="C141" s="2">
         <v>137</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="D141" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E141" s="11" t="s">
+      <c r="E141" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F141" s="11">
+      <c r="F141" s="4">
         <v>99</v>
       </c>
     </row>
     <row r="142" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C142" s="4">
+      <c r="C142" s="3">
         <v>138</v>
       </c>
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="17">
         <v>166</v>
       </c>
     </row>
     <row r="143" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C143" s="4">
+      <c r="C143" s="3">
         <v>139</v>
       </c>
-      <c r="D143" s="18" t="s">
+      <c r="D143" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E143" s="18" t="s">
+      <c r="E143" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F143" s="17">
         <v>194</v>
       </c>
     </row>
     <row r="144" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C144" s="11">
+      <c r="C144" s="2">
         <v>140</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E144" s="11" t="s">
+      <c r="E144" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F144" s="11">
+      <c r="F144" s="4">
         <v>242</v>
       </c>
     </row>
     <row r="145" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C145" s="4">
+      <c r="C145" s="3">
         <v>141</v>
       </c>
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="F145" s="18">
+      <c r="F145" s="17">
         <v>308</v>
       </c>
     </row>
@@ -3642,125 +3672,125 @@
       <c r="C146" s="2">
         <v>142</v>
       </c>
-      <c r="D146" s="11" t="s">
+      <c r="D146" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E146" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="F146" s="11">
+      <c r="F146" s="4">
         <v>235</v>
       </c>
     </row>
     <row r="147" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C147" s="4">
+      <c r="C147" s="3">
         <v>143</v>
       </c>
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F147" s="17">
         <v>229</v>
       </c>
     </row>
     <row r="148" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C148" s="11">
+      <c r="C148" s="2">
         <v>144</v>
       </c>
-      <c r="D148" s="11" t="s">
+      <c r="D148" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E148" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="4">
         <v>142</v>
       </c>
     </row>
     <row r="149" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C149" s="11">
+      <c r="C149" s="2">
         <v>145</v>
       </c>
-      <c r="D149" s="11" t="s">
+      <c r="D149" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E149" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="F149" s="11">
+      <c r="F149" s="4">
         <v>238</v>
       </c>
     </row>
     <row r="150" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>146</v>
       </c>
-      <c r="D150" s="18" t="s">
+      <c r="D150" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="F150" s="18">
+      <c r="F150" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="151" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C151" s="4">
+      <c r="C151" s="3">
         <v>147</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="F151" s="18">
+      <c r="F151" s="17">
         <v>97</v>
       </c>
     </row>
     <row r="152" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C152" s="4">
+      <c r="C152" s="3">
         <v>148</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="17" t="s">
         <v>289</v>
       </c>
-      <c r="F152" s="18">
+      <c r="F152" s="17">
         <v>120</v>
       </c>
     </row>
     <row r="153" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C153" s="20">
+      <c r="C153" s="3">
         <v>149</v>
       </c>
-      <c r="D153" s="20" t="s">
+      <c r="D153" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="E153" s="20" t="s">
+      <c r="E153" s="17" t="s">
         <v>291</v>
       </c>
-      <c r="F153" s="20">
+      <c r="F153" s="17">
         <v>154</v>
       </c>
     </row>
     <row r="154" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C154" s="20">
+      <c r="C154" s="3">
         <v>150</v>
       </c>
-      <c r="D154" s="20" t="s">
+      <c r="D154" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="E154" s="20" t="s">
+      <c r="E154" s="17" t="s">
         <v>293</v>
       </c>
-      <c r="F154" s="20">
+      <c r="F154" s="17">
         <v>257</v>
       </c>
     </row>
@@ -3768,195 +3798,195 @@
       <c r="C155" s="2">
         <v>151</v>
       </c>
-      <c r="D155" s="11" t="s">
+      <c r="D155" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E155" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="F155" s="11">
+      <c r="F155" s="4">
         <v>155</v>
       </c>
     </row>
     <row r="156" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C156" s="19">
+      <c r="C156" s="11">
         <v>152</v>
       </c>
-      <c r="D156" s="23" t="s">
+      <c r="D156" s="18" t="s">
         <v>298</v>
       </c>
-      <c r="E156" s="23" t="s">
+      <c r="E156" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="F156" s="23">
+      <c r="F156" s="18">
         <v>533</v>
       </c>
     </row>
     <row r="157" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C157" s="11">
+      <c r="C157" s="2">
         <v>153</v>
       </c>
-      <c r="D157" s="11" t="s">
+      <c r="D157" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E157" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F157" s="11">
+      <c r="F157" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="158" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C158" s="4">
+      <c r="C158" s="3">
         <v>154</v>
       </c>
-      <c r="D158" s="18" t="s">
+      <c r="D158" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="E158" s="18" t="s">
+      <c r="E158" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="F158" s="18">
+      <c r="F158" s="17">
         <v>292</v>
       </c>
     </row>
     <row r="159" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C159" s="4">
+      <c r="C159" s="3">
         <v>155</v>
       </c>
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="17" t="s">
         <v>304</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="17" t="s">
         <v>303</v>
       </c>
-      <c r="F159" s="18">
+      <c r="F159" s="17">
         <v>112</v>
       </c>
     </row>
     <row r="160" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C160" s="12">
+      <c r="C160" s="8">
         <v>156</v>
       </c>
-      <c r="D160" s="15" t="s">
+      <c r="D160" s="29" t="s">
         <v>306</v>
       </c>
-      <c r="E160" s="14" t="s">
+      <c r="E160" s="25" t="s">
         <v>305</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="26">
         <v>481</v>
       </c>
     </row>
     <row r="161" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C161" s="12">
+      <c r="C161" s="8">
         <v>157</v>
       </c>
-      <c r="D161" s="15" t="s">
+      <c r="D161" s="29" t="s">
         <v>308</v>
       </c>
-      <c r="E161" t="s">
+      <c r="E161" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="26">
         <v>132</v>
       </c>
     </row>
     <row r="162" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C162" s="4">
+      <c r="C162" s="3">
         <v>158</v>
       </c>
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="17" t="s">
         <v>310</v>
       </c>
-      <c r="E162" s="18" t="s">
+      <c r="E162" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="F162" s="18">
+      <c r="F162" s="17">
         <v>23</v>
       </c>
     </row>
     <row r="163" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C163" s="12">
+      <c r="C163" s="14">
         <v>159</v>
       </c>
-      <c r="D163" s="15" t="s">
+      <c r="D163" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="23">
         <v>78</v>
       </c>
     </row>
     <row r="164" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C164" s="4">
+      <c r="C164" s="3">
         <v>160</v>
       </c>
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="E164" s="18" t="s">
+      <c r="E164" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="F164" s="18">
+      <c r="F164" s="17">
         <v>108</v>
       </c>
     </row>
     <row r="165" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C165" s="4">
+      <c r="C165" s="3">
         <v>161</v>
       </c>
-      <c r="D165" s="18" t="s">
+      <c r="D165" s="17" t="s">
         <v>316</v>
       </c>
-      <c r="E165" s="18" t="s">
+      <c r="E165" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="F165" s="18">
+      <c r="F165" s="17">
         <v>121</v>
       </c>
     </row>
     <row r="166" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C166" s="12">
+      <c r="C166" s="8">
         <v>162</v>
       </c>
-      <c r="D166" s="15" t="s">
+      <c r="D166" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="E166" t="s">
+      <c r="E166" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="26">
         <v>143</v>
       </c>
     </row>
     <row r="167" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C167" s="4">
+      <c r="C167" s="3">
         <v>163</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="E167" s="18" t="s">
+      <c r="E167" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="F167" s="18">
+      <c r="F167" s="17">
         <v>80</v>
       </c>
     </row>
     <row r="168" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C168" s="4">
+      <c r="C168" s="3">
         <v>164</v>
       </c>
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="17" t="s">
         <v>322</v>
       </c>
-      <c r="E168" s="18" t="s">
+      <c r="E168" s="17" t="s">
         <v>321</v>
       </c>
-      <c r="F168" s="18">
+      <c r="F168" s="17">
         <v>31</v>
       </c>
     </row>
@@ -3964,13 +3994,13 @@
       <c r="C169" s="2">
         <v>165</v>
       </c>
-      <c r="D169" s="22" t="s">
+      <c r="D169" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E169" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="F169" s="11">
+      <c r="F169" s="4">
         <v>188</v>
       </c>
     </row>
@@ -3978,13 +4008,13 @@
       <c r="C170" s="2">
         <v>166</v>
       </c>
-      <c r="D170" s="22" t="s">
+      <c r="D170" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E170" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F170" s="11">
+      <c r="F170" s="4">
         <v>162</v>
       </c>
     </row>
@@ -3992,402 +4022,532 @@
       <c r="C171" s="2">
         <v>167</v>
       </c>
-      <c r="D171" s="22" t="s">
+      <c r="D171" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="E171" s="26" t="s">
+      <c r="E171" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="F171" s="11">
+      <c r="F171" s="4">
         <v>57</v>
       </c>
     </row>
     <row r="172" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C172" s="2">
+      <c r="C172" s="14">
         <v>168</v>
       </c>
-      <c r="D172" s="15" t="s">
+      <c r="D172" s="23" t="s">
         <v>377</v>
       </c>
-      <c r="E172" t="s">
+      <c r="E172" s="23" t="s">
         <v>362</v>
       </c>
-      <c r="F172" s="11">
+      <c r="F172" s="23">
         <v>43</v>
       </c>
     </row>
     <row r="173" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C173" s="4">
+      <c r="C173" s="3">
         <v>169</v>
       </c>
-      <c r="D173" s="18" t="s">
+      <c r="D173" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="E173" s="18" t="s">
+      <c r="E173" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="F173" s="18">
+      <c r="F173" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="174" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C174" s="4">
+      <c r="C174" s="3">
         <v>170</v>
       </c>
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="E174" s="18" t="s">
+      <c r="E174" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="F174" s="18">
+      <c r="F174" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="175" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C175" s="18">
+      <c r="C175" s="3">
         <v>171</v>
       </c>
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="E175" s="18" t="s">
+      <c r="E175" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="F175" s="18">
+      <c r="F175" s="17">
         <v>86</v>
       </c>
     </row>
     <row r="176" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C176" s="18">
+      <c r="C176" s="3">
         <v>172</v>
       </c>
-      <c r="D176" s="18" t="s">
+      <c r="D176" s="17" t="s">
         <v>336</v>
       </c>
-      <c r="E176" s="18" t="s">
+      <c r="E176" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="F176" s="18">
+      <c r="F176" s="17">
         <v>152</v>
       </c>
     </row>
     <row r="177" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C177" s="18">
+      <c r="C177" s="3">
         <v>173</v>
       </c>
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="E177" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="F177" s="18">
+      <c r="F177" s="17">
         <v>51</v>
       </c>
     </row>
     <row r="178" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C178" s="18">
+      <c r="C178" s="3">
         <v>174</v>
       </c>
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E178" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="F178" s="18">
+      <c r="F178" s="17">
         <v>77</v>
       </c>
     </row>
     <row r="179" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C179" s="18">
+      <c r="C179" s="3">
         <v>175</v>
       </c>
-      <c r="D179" s="18" t="s">
+      <c r="D179" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="E179" s="18" t="s">
+      <c r="E179" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="F179" s="18">
+      <c r="F179" s="17">
         <v>87</v>
       </c>
     </row>
     <row r="180" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C180" s="18">
+      <c r="C180" s="3">
         <v>176</v>
       </c>
-      <c r="D180" s="18" t="s">
+      <c r="D180" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="E180" s="18" t="s">
+      <c r="E180" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="F180" s="18">
+      <c r="F180" s="17">
         <v>81</v>
       </c>
     </row>
     <row r="181" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C181" s="18">
+      <c r="C181" s="3">
         <v>177</v>
       </c>
-      <c r="D181" s="18" t="s">
+      <c r="D181" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="F181" s="18">
+      <c r="F181" s="17">
         <v>114</v>
       </c>
     </row>
     <row r="182" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C182" s="18">
+      <c r="C182" s="3">
         <v>178</v>
       </c>
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="F182" s="18">
+      <c r="F182" s="17">
         <v>179</v>
       </c>
     </row>
     <row r="183" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C183">
+      <c r="C183" s="3">
         <v>179</v>
       </c>
-      <c r="D183" s="15" t="s">
+      <c r="D183" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="E183" t="s">
+      <c r="E183" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="F183" s="11">
+      <c r="F183" s="17">
         <v>98</v>
       </c>
     </row>
     <row r="184" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C184" s="18">
+      <c r="C184" s="3">
         <v>180</v>
       </c>
-      <c r="D184" s="18" t="s">
+      <c r="D184" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="E184" s="18" t="s">
+      <c r="E184" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="F184" s="18">
+      <c r="F184" s="17">
         <v>45</v>
       </c>
     </row>
     <row r="185" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C185" s="18">
+      <c r="C185" s="3">
         <v>181</v>
       </c>
-      <c r="D185" s="18" t="s">
+      <c r="D185" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E185" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F185" s="18">
+      <c r="F185" s="17">
         <v>47</v>
       </c>
     </row>
     <row r="186" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C186">
+      <c r="C186" s="31">
         <v>182</v>
       </c>
-      <c r="D186" s="15" t="s">
+      <c r="D186" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="E186" t="s">
+      <c r="E186" s="26" t="s">
         <v>350</v>
       </c>
-      <c r="F186" s="11">
+      <c r="F186" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="187" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C187">
+      <c r="C187" s="31">
         <v>183</v>
       </c>
-      <c r="D187" s="15" t="s">
+      <c r="D187" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="E187" t="s">
+      <c r="E187" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="F187" s="11">
+      <c r="F187" s="4">
         <v>245</v>
       </c>
     </row>
     <row r="188" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C188" s="18">
+      <c r="C188" s="3">
         <v>184</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F188" s="18">
+      <c r="F188" s="17">
         <v>29</v>
       </c>
     </row>
     <row r="189" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C189" s="18">
+      <c r="C189" s="3">
         <v>185</v>
       </c>
-      <c r="D189" s="18" t="s">
+      <c r="D189" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="E189" s="18" t="s">
+      <c r="E189" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="F189" s="18">
+      <c r="F189" s="17">
         <v>65</v>
       </c>
     </row>
     <row r="190" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C190">
+      <c r="C190" s="31">
         <v>186</v>
       </c>
-      <c r="D190" s="15" t="s">
+      <c r="D190" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="E190" t="s">
+      <c r="E190" s="26" t="s">
         <v>354</v>
       </c>
-      <c r="F190" s="11">
+      <c r="F190" s="4">
         <v>162</v>
       </c>
     </row>
     <row r="191" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C191">
+      <c r="C191" s="3">
         <v>187</v>
       </c>
-      <c r="D191" s="15" t="s">
+      <c r="D191" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="F191" s="11">
+      <c r="F191" s="17">
         <v>197</v>
       </c>
     </row>
     <row r="192" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C192">
+      <c r="C192" s="3">
         <v>188</v>
       </c>
-      <c r="D192" s="15" t="s">
+      <c r="D192" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="E192" t="s">
+      <c r="E192" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="F192" s="11">
+      <c r="F192" s="17">
         <v>196</v>
       </c>
     </row>
     <row r="193" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C193">
+      <c r="C193" s="31">
         <v>189</v>
       </c>
-      <c r="D193" s="15" t="s">
+      <c r="D193" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="E193" t="s">
+      <c r="E193" s="26" t="s">
         <v>357</v>
       </c>
-      <c r="F193" s="11">
+      <c r="F193" s="4">
         <v>94</v>
       </c>
     </row>
     <row r="194" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C194">
+      <c r="C194" s="31">
         <v>190</v>
       </c>
-      <c r="D194" s="15" t="s">
+      <c r="D194" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="E194" t="s">
+      <c r="E194" s="26" t="s">
         <v>358</v>
       </c>
-      <c r="F194" s="11">
+      <c r="F194" s="4">
         <v>135</v>
       </c>
     </row>
     <row r="195" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C195" s="18">
+      <c r="C195" s="3">
         <v>191</v>
       </c>
-      <c r="D195" s="18" t="s">
+      <c r="D195" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="E195" s="18" t="s">
+      <c r="E195" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="F195" s="18">
+      <c r="F195" s="17">
         <v>61</v>
       </c>
     </row>
     <row r="196" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C196" s="18">
+      <c r="C196" s="3">
         <v>192</v>
       </c>
-      <c r="D196" s="18" t="s">
+      <c r="D196" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="E196" s="18" t="s">
+      <c r="E196" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="F196" s="18">
+      <c r="F196" s="17">
         <v>36</v>
       </c>
     </row>
     <row r="197" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C197" s="18">
+      <c r="C197" s="3">
         <v>193</v>
       </c>
-      <c r="D197" s="18" t="s">
+      <c r="D197" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="E197" s="18" t="s">
+      <c r="E197" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="F197" s="18">
+      <c r="F197" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="198" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C198">
+      <c r="C198" s="3">
         <v>194</v>
       </c>
-      <c r="D198" s="15" t="s">
+      <c r="D198" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="E198" t="s">
+      <c r="E198" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="F198" s="11">
+      <c r="F198" s="17">
         <v>315</v>
       </c>
     </row>
     <row r="199" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C199">
+      <c r="C199" s="31">
         <v>195</v>
       </c>
     </row>
     <row r="200" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C200">
+      <c r="C200" s="31">
         <v>196</v>
+      </c>
+    </row>
+    <row r="201" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C201" s="3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="202" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C202" s="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="203" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C203" s="3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C204" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C205" s="3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C206" s="3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="207" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C207" s="3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="208" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C208" s="3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C209" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="3">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
